--- a/JupyterNotebooks/AvgHW/Gamma1F-HW40.xlsx
+++ b/JupyterNotebooks/AvgHW/Gamma1F-HW40.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>HKL</t>
   </si>
@@ -58,6 +58,18 @@
     <t>OffsetATD</t>
   </si>
   <si>
+    <t>Holden2.5</t>
+  </si>
+  <si>
+    <t>Holden5</t>
+  </si>
+  <si>
+    <t>Holden10</t>
+  </si>
+  <si>
+    <t>Holden15</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -70,18 +82,21 @@
     <t>HexGrid-90degTilt15degRes</t>
   </si>
   <si>
+    <t>[2, 1, 1]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
+    <t>[2, 0, 0]</t>
+  </si>
+  <si>
     <t>[1, 1, 0]</t>
   </si>
   <si>
-    <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
     <t>[2, 2, 2]</t>
   </si>
   <si>
@@ -89,9 +104,6 @@
   </si>
   <si>
     <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,13 +491,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD19"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,38 +555,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -582,91 +564,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -674,28 +626,28 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.00051930039003</v>
+        <v>1.000502449319027</v>
       </c>
       <c r="D3">
         <v>0.9979661321331535</v>
       </c>
       <c r="E3">
-        <v>1.000502449319027</v>
+        <v>1.00051930039003</v>
       </c>
       <c r="F3">
+        <v>0.9979661321331535</v>
+      </c>
+      <c r="G3">
         <v>1.00051930039003</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>1.001336654813797</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>0.9988852731160018</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>1.000507360406138</v>
-      </c>
-      <c r="J3">
-        <v>0.9979661321331535</v>
       </c>
       <c r="K3">
         <v>1.00051930039003</v>
@@ -728,7 +680,7 @@
         <v>0.9999528616963579</v>
       </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -736,28 +688,28 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.00100283813276</v>
+        <v>1.000969866443967</v>
       </c>
       <c r="D4">
         <v>0.9960734348970961</v>
       </c>
       <c r="E4">
-        <v>1.000969866443967</v>
+        <v>1.00100283813276</v>
       </c>
       <c r="F4">
+        <v>0.9960734348970961</v>
+      </c>
+      <c r="G4">
         <v>1.00100283813276</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>1.002580028711294</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>0.9978480202935387</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>1.000979476287905</v>
-      </c>
-      <c r="J4">
-        <v>0.9960734348970961</v>
       </c>
       <c r="K4">
         <v>1.00100283813276</v>
@@ -790,7 +742,7 @@
         <v>0.9999089441277603</v>
       </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -798,28 +750,28 @@
         <v>3</v>
       </c>
       <c r="C5">
+        <v>1.001859599711938</v>
+      </c>
+      <c r="D5">
+        <v>0.9924771057688319</v>
+      </c>
+      <c r="E5">
         <v>1.00191875199464</v>
       </c>
-      <c r="D5">
-        <v>0.9924771057688316</v>
-      </c>
-      <c r="E5">
-        <v>1.001859599711938</v>
-      </c>
       <c r="F5">
+        <v>0.9924771057688319</v>
+      </c>
+      <c r="G5">
         <v>1.00191875199464</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>1.004947658077869</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>0.9958761000721768</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>1.001876838826113</v>
-      </c>
-      <c r="J5">
-        <v>0.9924771057688316</v>
       </c>
       <c r="K5">
         <v>1.00191875199464</v>
@@ -828,31 +780,31 @@
         <v>1.001859599711938</v>
       </c>
       <c r="M5">
-        <v>0.9971683527403847</v>
+        <v>0.997168352740385</v>
       </c>
       <c r="N5">
-        <v>0.9971683527403847</v>
+        <v>0.997168352740385</v>
       </c>
       <c r="O5">
-        <v>0.996737601850982</v>
+        <v>0.9967376018509823</v>
       </c>
       <c r="P5">
-        <v>0.9987518191584698</v>
+        <v>0.9987518191584699</v>
       </c>
       <c r="Q5">
-        <v>0.9987518191584698</v>
+        <v>0.9987518191584699</v>
       </c>
       <c r="R5">
-        <v>0.9995435523675122</v>
+        <v>0.9995435523675124</v>
       </c>
       <c r="S5">
-        <v>0.9995435523675122</v>
+        <v>0.9995435523675124</v>
       </c>
       <c r="T5">
         <v>0.9998260090752614</v>
       </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -860,28 +812,28 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.002812717264504</v>
+        <v>1.002727907058603</v>
       </c>
       <c r="D6">
         <v>0.98896721946965</v>
       </c>
       <c r="E6">
-        <v>1.002727907058603</v>
+        <v>1.002812717264504</v>
       </c>
       <c r="F6">
+        <v>0.98896721946965</v>
+      </c>
+      <c r="G6">
         <v>1.002812717264504</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>1.007258248192955</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>0.9939516027508507</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>1.002752625559023</v>
-      </c>
-      <c r="J6">
-        <v>0.98896721946965</v>
       </c>
       <c r="K6">
         <v>1.002812717264504</v>
@@ -914,7 +866,7 @@
         <v>0.9997450533825974</v>
       </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -922,28 +874,28 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.000035148843486</v>
+        <v>1.000036413773947</v>
       </c>
       <c r="D7">
         <v>0.9998561536498887</v>
       </c>
       <c r="E7">
-        <v>1.000036413773947</v>
+        <v>1.000035148843486</v>
       </c>
       <c r="F7">
+        <v>0.9998561536498887</v>
+      </c>
+      <c r="G7">
         <v>1.000035148843486</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>1.000097344290016</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>0.9999205920110743</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>1.000036043454333</v>
-      </c>
-      <c r="J7">
-        <v>0.9998561536498887</v>
       </c>
       <c r="K7">
         <v>1.000035148843486</v>
@@ -976,7 +928,7 @@
         <v>0.999996949337124</v>
       </c>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -984,31 +936,31 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.000089988485536</v>
+        <v>1.00009268553505</v>
       </c>
       <c r="D8">
-        <v>0.9996331126357892</v>
+        <v>0.999633112635789</v>
       </c>
       <c r="E8">
-        <v>1.00009268553505</v>
+        <v>1.000089988485535</v>
       </c>
       <c r="F8">
-        <v>1.000089988485536</v>
+        <v>0.999633112635789</v>
       </c>
       <c r="G8">
+        <v>1.000089988485535</v>
+      </c>
+      <c r="H8">
         <v>1.000247675356345</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>0.9997975880161808</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>1.000091897809959</v>
       </c>
-      <c r="J8">
-        <v>0.9996331126357892</v>
-      </c>
       <c r="K8">
-        <v>1.000089988485536</v>
+        <v>1.000089988485535</v>
       </c>
       <c r="L8">
         <v>1.00009268553505</v>
@@ -1029,16 +981,16 @@
         <v>0.9999385955521248</v>
       </c>
       <c r="R8">
-        <v>0.9999764437854777</v>
+        <v>0.9999764437854775</v>
       </c>
       <c r="S8">
-        <v>0.9999764437854777</v>
+        <v>0.9999764437854775</v>
       </c>
       <c r="T8">
         <v>0.9999921579731432</v>
       </c>
     </row>
-    <row r="9" spans="1:30">
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1046,28 +998,28 @@
         <v>7</v>
       </c>
       <c r="C9">
+        <v>1.0001294778133</v>
+      </c>
+      <c r="D9">
+        <v>0.9994857301994455</v>
+      </c>
+      <c r="E9">
         <v>1.000126928886031</v>
       </c>
-      <c r="D9">
-        <v>0.9994857301994453</v>
-      </c>
-      <c r="E9">
-        <v>1.0001294778133</v>
-      </c>
       <c r="F9">
+        <v>0.9994857301994455</v>
+      </c>
+      <c r="G9">
         <v>1.000126928886031</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>1.00034576067871</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>0.9997165620321992</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>1.000128732783841</v>
-      </c>
-      <c r="J9">
-        <v>0.9994857301994453</v>
       </c>
       <c r="K9">
         <v>1.000126928886031</v>
@@ -1076,13 +1028,13 @@
         <v>1.0001294778133</v>
       </c>
       <c r="M9">
-        <v>0.9998076040063725</v>
+        <v>0.9998076040063726</v>
       </c>
       <c r="N9">
-        <v>0.9998076040063725</v>
+        <v>0.9998076040063726</v>
       </c>
       <c r="O9">
-        <v>0.999777256681648</v>
+        <v>0.9997772566816482</v>
       </c>
       <c r="P9">
         <v>0.9999140456329254</v>
@@ -1100,7 +1052,7 @@
         <v>0.9999888653989211</v>
       </c>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1108,28 +1060,28 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.000272486759604</v>
+        <v>1.000279567051041</v>
       </c>
       <c r="D10">
         <v>0.9988918489663254</v>
       </c>
       <c r="E10">
-        <v>1.000279567051041</v>
+        <v>1.000272486759604</v>
       </c>
       <c r="F10">
+        <v>0.9988918489663254</v>
+      </c>
+      <c r="G10">
         <v>1.000272486759604</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>1.000746860922749</v>
       </c>
-      <c r="H10">
-        <v>0.9993888793534051</v>
-      </c>
       <c r="I10">
+        <v>0.9993888793534049</v>
+      </c>
+      <c r="J10">
         <v>1.000277501911529</v>
-      </c>
-      <c r="J10">
-        <v>0.9988918489663254</v>
       </c>
       <c r="K10">
         <v>1.000272486759604</v>
@@ -1162,7 +1114,7 @@
         <v>0.9999761908274424</v>
       </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1170,28 +1122,28 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.000454336686114</v>
+        <v>1.000462994054232</v>
       </c>
       <c r="D11">
         <v>0.9981603911914795</v>
       </c>
       <c r="E11">
-        <v>1.000462994054232</v>
+        <v>1.000454336686114</v>
       </c>
       <c r="F11">
+        <v>0.9981603911914795</v>
+      </c>
+      <c r="G11">
         <v>1.000454336686114</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>1.001236297170131</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>0.9989862136374877</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>1.000460469810071</v>
-      </c>
-      <c r="J11">
-        <v>0.9981603911914795</v>
       </c>
       <c r="K11">
         <v>1.000454336686114</v>
@@ -1224,7 +1176,7 @@
         <v>0.9999601170915859</v>
       </c>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1232,31 +1184,31 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9961532012859833</v>
+        <v>0.995839559082411</v>
       </c>
       <c r="D12">
         <v>1.016193687138772</v>
       </c>
       <c r="E12">
-        <v>0.995839559082411</v>
+        <v>0.9961532012859831</v>
       </c>
       <c r="F12">
-        <v>0.9961532012859833</v>
+        <v>1.016193687138772</v>
       </c>
       <c r="G12">
-        <v>0.9888457516192122</v>
+        <v>0.9961532012859831</v>
       </c>
       <c r="H12">
+        <v>0.9888457516192121</v>
+      </c>
+      <c r="I12">
         <v>1.008979122479616</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>0.99593099940129</v>
       </c>
-      <c r="J12">
-        <v>1.016193687138772</v>
-      </c>
       <c r="K12">
-        <v>0.9961532012859833</v>
+        <v>0.9961532012859831</v>
       </c>
       <c r="L12">
         <v>0.995839559082411</v>
@@ -1286,7 +1238,7 @@
         <v>1.000323720167881</v>
       </c>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1294,31 +1246,31 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9988435316915254</v>
+        <v>0.9989774625537183</v>
       </c>
       <c r="D13">
         <v>1.004281490267081</v>
       </c>
       <c r="E13">
-        <v>0.9989774625537183</v>
+        <v>0.9988435316915255</v>
       </c>
       <c r="F13">
-        <v>0.9988435316915254</v>
+        <v>1.004281490267081</v>
       </c>
       <c r="G13">
+        <v>0.9988435316915255</v>
+      </c>
+      <c r="H13">
         <v>0.997298734995314</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>1.00232382191961</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>0.9989384104547494</v>
       </c>
-      <c r="J13">
-        <v>1.004281490267081</v>
-      </c>
       <c r="K13">
-        <v>0.9988435316915254</v>
+        <v>0.9988435316915255</v>
       </c>
       <c r="L13">
         <v>0.9989774625537183</v>
@@ -1348,7 +1300,7 @@
         <v>1.000110575313666</v>
       </c>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1356,28 +1308,28 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9961408743141079</v>
+        <v>0.9958438400036426</v>
       </c>
       <c r="D14">
         <v>1.016200288245715</v>
       </c>
       <c r="E14">
-        <v>0.9958438400036426</v>
+        <v>0.9961408743141079</v>
       </c>
       <c r="F14">
+        <v>1.016200288245715</v>
+      </c>
+      <c r="G14">
         <v>0.9961408743141079</v>
       </c>
-      <c r="G14">
-        <v>0.988860335735942</v>
-      </c>
       <c r="H14">
+        <v>0.9888603357359418</v>
+      </c>
+      <c r="I14">
         <v>1.008978914217928</v>
       </c>
-      <c r="I14">
-        <v>0.995930439966184</v>
-      </c>
       <c r="J14">
-        <v>1.016200288245715</v>
+        <v>0.9959304399661839</v>
       </c>
       <c r="K14">
         <v>0.9961408743141079</v>
@@ -1410,7 +1362,7 @@
         <v>1.000325782080586</v>
       </c>
     </row>
-    <row r="15" spans="1:30">
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1418,28 +1370,28 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9988488598131477</v>
+        <v>0.9989758828252507</v>
       </c>
       <c r="D15">
         <v>1.004277941425143</v>
       </c>
       <c r="E15">
-        <v>0.9989758828252507</v>
+        <v>0.9988488598131477</v>
       </c>
       <c r="F15">
+        <v>1.004277941425143</v>
+      </c>
+      <c r="G15">
         <v>0.9988488598131477</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>0.9972932088485219</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>1.002323478611435</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>0.9989388483370064</v>
-      </c>
-      <c r="J15">
-        <v>1.004277941425143</v>
       </c>
       <c r="K15">
         <v>0.9988488598131477</v>
@@ -1472,7 +1424,7 @@
         <v>1.000109703310084</v>
       </c>
     </row>
-    <row r="16" spans="1:30">
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1480,58 +1432,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9999985285246776</v>
+        <v>1.009810568569297</v>
       </c>
       <c r="D16">
-        <v>0.999993827691228</v>
+        <v>0.9603494133932654</v>
       </c>
       <c r="E16">
-        <v>1.000003218537943</v>
+        <v>1.010096392119909</v>
       </c>
       <c r="F16">
-        <v>0.9999985285246776</v>
+        <v>0.9603494133932654</v>
       </c>
       <c r="G16">
-        <v>1.000009475562039</v>
+        <v>1.010096392119909</v>
       </c>
       <c r="H16">
-        <v>0.9999955202073566</v>
+        <v>1.026107067761042</v>
       </c>
       <c r="I16">
-        <v>1.00000184976786</v>
+        <v>0.9782583270470501</v>
       </c>
       <c r="J16">
-        <v>0.999993827691228</v>
+        <v>1.009893894187641</v>
       </c>
       <c r="K16">
-        <v>0.9999985285246776</v>
+        <v>1.010096392119909</v>
       </c>
       <c r="L16">
-        <v>1.000003218537943</v>
+        <v>1.009810568569297</v>
       </c>
       <c r="M16">
-        <v>0.9999985231145854</v>
+        <v>0.9850799909812813</v>
       </c>
       <c r="N16">
-        <v>0.9999985231145854</v>
+        <v>0.9850799909812813</v>
       </c>
       <c r="O16">
-        <v>0.9999975221455091</v>
+        <v>0.9828061030032043</v>
       </c>
       <c r="P16">
-        <v>0.9999985249179494</v>
+        <v>0.9934187913608238</v>
       </c>
       <c r="Q16">
-        <v>0.9999985249179494</v>
+        <v>0.9934187913608238</v>
       </c>
       <c r="R16">
-        <v>0.9999985258196314</v>
+        <v>0.9975881915505951</v>
       </c>
       <c r="S16">
-        <v>0.9999985258196314</v>
+        <v>0.9975881915505951</v>
       </c>
       <c r="T16">
-        <v>1.000000403381851</v>
+        <v>0.9990859438463674</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1542,58 +1494,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.000047702320549</v>
+        <v>1.008049010581944</v>
       </c>
       <c r="D17">
-        <v>0.9998207271997852</v>
+        <v>0.967595100465848</v>
       </c>
       <c r="E17">
-        <v>1.000043216881216</v>
+        <v>1.008195213819767</v>
       </c>
       <c r="F17">
-        <v>1.000047702320549</v>
+        <v>0.967595100465848</v>
       </c>
       <c r="G17">
-        <v>1.000114389615111</v>
+        <v>1.008195213819767</v>
       </c>
       <c r="H17">
-        <v>0.9999024384148888</v>
+        <v>1.021436177364094</v>
       </c>
       <c r="I17">
-        <v>1.000044522962342</v>
+        <v>0.9822111421928711</v>
       </c>
       <c r="J17">
-        <v>0.9998207271997852</v>
+        <v>1.008091631371457</v>
       </c>
       <c r="K17">
-        <v>1.000047702320549</v>
+        <v>1.008195213819767</v>
       </c>
       <c r="L17">
-        <v>1.000043216881216</v>
+        <v>1.008049010581944</v>
       </c>
       <c r="M17">
-        <v>0.9999319720405004</v>
+        <v>0.9878220555238959</v>
       </c>
       <c r="N17">
-        <v>0.9999319720405004</v>
+        <v>0.9878220555238959</v>
       </c>
       <c r="O17">
-        <v>0.99992212749863</v>
+        <v>0.985951751080221</v>
       </c>
       <c r="P17">
-        <v>0.9999705488005164</v>
+        <v>0.9946131082891864</v>
       </c>
       <c r="Q17">
-        <v>0.9999705488005164</v>
+        <v>0.9946131082891864</v>
       </c>
       <c r="R17">
-        <v>0.9999898371805245</v>
+        <v>0.9980086346718315</v>
       </c>
       <c r="S17">
-        <v>0.9999898371805245</v>
+        <v>0.9980086346718315</v>
       </c>
       <c r="T17">
-        <v>0.9999954995656485</v>
+        <v>0.9992630459659969</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1604,58 +1556,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.00015133401953</v>
+        <v>1.004505704496864</v>
       </c>
       <c r="D18">
-        <v>0.9993790519342259</v>
+        <v>0.9821623760609947</v>
       </c>
       <c r="E18">
-        <v>1.000157408612547</v>
+        <v>1.004376068776553</v>
       </c>
       <c r="F18">
-        <v>1.00015133401953</v>
+        <v>0.9821623760609947</v>
       </c>
       <c r="G18">
-        <v>1.000420902890542</v>
+        <v>1.004376068776553</v>
       </c>
       <c r="H18">
-        <v>0.9996570747439671</v>
+        <v>1.012039906809058</v>
       </c>
       <c r="I18">
-        <v>1.000155635565408</v>
+        <v>0.9901593076936404</v>
       </c>
       <c r="J18">
-        <v>0.9993790519342259</v>
+        <v>1.004467906653415</v>
       </c>
       <c r="K18">
-        <v>1.00015133401953</v>
+        <v>1.004376068776553</v>
       </c>
       <c r="L18">
-        <v>1.000157408612547</v>
+        <v>1.004505704496864</v>
       </c>
       <c r="M18">
-        <v>0.9997682302733866</v>
+        <v>0.9933340402789295</v>
       </c>
       <c r="N18">
-        <v>0.9997682302733866</v>
+        <v>0.9933340402789295</v>
       </c>
       <c r="O18">
-        <v>0.9997311784302467</v>
+        <v>0.9922757960838332</v>
       </c>
       <c r="P18">
-        <v>0.9998959315221011</v>
+        <v>0.9970147164448041</v>
       </c>
       <c r="Q18">
-        <v>0.9998959315221011</v>
+        <v>0.9970147164448041</v>
       </c>
       <c r="R18">
-        <v>0.9999597821464583</v>
+        <v>0.9988550545277415</v>
       </c>
       <c r="S18">
-        <v>0.9999597821464583</v>
+        <v>0.9988550545277415</v>
       </c>
       <c r="T18">
-        <v>0.9999869012943701</v>
+        <v>0.9996185450817543</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1666,57 +1618,305 @@
         <v>17</v>
       </c>
       <c r="C19">
+        <v>1.004928808333047</v>
+      </c>
+      <c r="D19">
+        <v>0.9805482426836194</v>
+      </c>
+      <c r="E19">
+        <v>1.004744376375495</v>
+      </c>
+      <c r="F19">
+        <v>0.9805482426836194</v>
+      </c>
+      <c r="G19">
+        <v>1.004744376375495</v>
+      </c>
+      <c r="H19">
+        <v>1.0131786160109</v>
+      </c>
+      <c r="I19">
+        <v>0.9892588552230872</v>
+      </c>
+      <c r="J19">
+        <v>1.004875033046569</v>
+      </c>
+      <c r="K19">
+        <v>1.004744376375495</v>
+      </c>
+      <c r="L19">
+        <v>1.004928808333047</v>
+      </c>
+      <c r="M19">
+        <v>0.992738525508333</v>
+      </c>
+      <c r="N19">
+        <v>0.992738525508333</v>
+      </c>
+      <c r="O19">
+        <v>0.9915786354132511</v>
+      </c>
+      <c r="P19">
+        <v>0.9967404757973869</v>
+      </c>
+      <c r="Q19">
+        <v>0.9967404757973869</v>
+      </c>
+      <c r="R19">
+        <v>0.9987414509419139</v>
+      </c>
+      <c r="S19">
+        <v>0.9987414509419139</v>
+      </c>
+      <c r="T19">
+        <v>0.9995889886121195</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1.000003218537943</v>
+      </c>
+      <c r="D20">
+        <v>0.999993827691228</v>
+      </c>
+      <c r="E20">
+        <v>0.9999985285246776</v>
+      </c>
+      <c r="F20">
+        <v>0.999993827691228</v>
+      </c>
+      <c r="G20">
+        <v>0.9999985285246776</v>
+      </c>
+      <c r="H20">
+        <v>1.000009475562039</v>
+      </c>
+      <c r="I20">
+        <v>0.9999955202073563</v>
+      </c>
+      <c r="J20">
+        <v>1.00000184976786</v>
+      </c>
+      <c r="K20">
+        <v>0.9999985285246776</v>
+      </c>
+      <c r="L20">
+        <v>1.000003218537943</v>
+      </c>
+      <c r="M20">
+        <v>0.9999985231145854</v>
+      </c>
+      <c r="N20">
+        <v>0.9999985231145854</v>
+      </c>
+      <c r="O20">
+        <v>0.999997522145509</v>
+      </c>
+      <c r="P20">
+        <v>0.9999985249179494</v>
+      </c>
+      <c r="Q20">
+        <v>0.9999985249179494</v>
+      </c>
+      <c r="R20">
+        <v>0.9999985258196314</v>
+      </c>
+      <c r="S20">
+        <v>0.9999985258196314</v>
+      </c>
+      <c r="T20">
+        <v>1.000000403381851</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>1.000043216881216</v>
+      </c>
+      <c r="D21">
+        <v>0.9998207271997852</v>
+      </c>
+      <c r="E21">
+        <v>1.000047702320549</v>
+      </c>
+      <c r="F21">
+        <v>0.9998207271997852</v>
+      </c>
+      <c r="G21">
+        <v>1.000047702320549</v>
+      </c>
+      <c r="H21">
+        <v>1.000114389615111</v>
+      </c>
+      <c r="I21">
+        <v>0.9999024384148889</v>
+      </c>
+      <c r="J21">
+        <v>1.000044522962342</v>
+      </c>
+      <c r="K21">
+        <v>1.000047702320549</v>
+      </c>
+      <c r="L21">
+        <v>1.000043216881216</v>
+      </c>
+      <c r="M21">
+        <v>0.9999319720405004</v>
+      </c>
+      <c r="N21">
+        <v>0.9999319720405004</v>
+      </c>
+      <c r="O21">
+        <v>0.99992212749863</v>
+      </c>
+      <c r="P21">
+        <v>0.9999705488005164</v>
+      </c>
+      <c r="Q21">
+        <v>0.9999705488005164</v>
+      </c>
+      <c r="R21">
+        <v>0.9999898371805245</v>
+      </c>
+      <c r="S21">
+        <v>0.9999898371805245</v>
+      </c>
+      <c r="T21">
+        <v>0.9999954995656485</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>1.000157408612547</v>
+      </c>
+      <c r="D22">
+        <v>0.9993790519342259</v>
+      </c>
+      <c r="E22">
+        <v>1.00015133401953</v>
+      </c>
+      <c r="F22">
+        <v>0.9993790519342259</v>
+      </c>
+      <c r="G22">
+        <v>1.00015133401953</v>
+      </c>
+      <c r="H22">
+        <v>1.000420902890542</v>
+      </c>
+      <c r="I22">
+        <v>0.9996570747439673</v>
+      </c>
+      <c r="J22">
+        <v>1.000155635565408</v>
+      </c>
+      <c r="K22">
+        <v>1.00015133401953</v>
+      </c>
+      <c r="L22">
+        <v>1.000157408612547</v>
+      </c>
+      <c r="M22">
+        <v>0.9997682302733866</v>
+      </c>
+      <c r="N22">
+        <v>0.9997682302733866</v>
+      </c>
+      <c r="O22">
+        <v>0.9997311784302468</v>
+      </c>
+      <c r="P22">
+        <v>0.9998959315221011</v>
+      </c>
+      <c r="Q22">
+        <v>0.9998959315221011</v>
+      </c>
+      <c r="R22">
+        <v>0.9999597821464583</v>
+      </c>
+      <c r="S22">
+        <v>0.9999597821464583</v>
+      </c>
+      <c r="T22">
+        <v>0.9999869012943702</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>1.000371389133334</v>
+      </c>
+      <c r="D23">
+        <v>0.9985504374020946</v>
+      </c>
+      <c r="E23">
         <v>1.000346199030462</v>
       </c>
-      <c r="D19">
-        <v>0.9985504374020944</v>
-      </c>
-      <c r="E19">
+      <c r="F23">
+        <v>0.9985504374020946</v>
+      </c>
+      <c r="G23">
+        <v>1.000346199030462</v>
+      </c>
+      <c r="H23">
+        <v>1.000995165207772</v>
+      </c>
+      <c r="I23">
+        <v>0.9991969145579661</v>
+      </c>
+      <c r="J23">
+        <v>1.000364043270616</v>
+      </c>
+      <c r="K23">
+        <v>1.000346199030462</v>
+      </c>
+      <c r="L23">
         <v>1.000371389133334</v>
       </c>
-      <c r="F19">
-        <v>1.000346199030462</v>
-      </c>
-      <c r="G19">
-        <v>1.000995165207772</v>
-      </c>
-      <c r="H19">
-        <v>0.9991969145579661</v>
-      </c>
-      <c r="I19">
-        <v>1.000364043270616</v>
-      </c>
-      <c r="J19">
-        <v>0.9985504374020944</v>
-      </c>
-      <c r="K19">
-        <v>1.000346199030462</v>
-      </c>
-      <c r="L19">
-        <v>1.000371389133334</v>
-      </c>
-      <c r="M19">
-        <v>0.999460913267714</v>
-      </c>
-      <c r="N19">
-        <v>0.999460913267714</v>
-      </c>
-      <c r="O19">
-        <v>0.999372913697798</v>
-      </c>
-      <c r="P19">
+      <c r="M23">
+        <v>0.9994609132677141</v>
+      </c>
+      <c r="N23">
+        <v>0.9994609132677141</v>
+      </c>
+      <c r="O23">
+        <v>0.9993729136977981</v>
+      </c>
+      <c r="P23">
         <v>0.9997560085219632</v>
       </c>
-      <c r="Q19">
+      <c r="Q23">
         <v>0.9997560085219632</v>
       </c>
-      <c r="R19">
+      <c r="R23">
         <v>0.9999035561490879</v>
       </c>
-      <c r="S19">
+      <c r="S23">
         <v>0.9999035561490879</v>
       </c>
-      <c r="T19">
+      <c r="T23">
         <v>0.9999706914337073</v>
       </c>
     </row>

--- a/JupyterNotebooks/AvgHW/Gamma1F-HW40.xlsx
+++ b/JupyterNotebooks/AvgHW/Gamma1F-HW40.xlsx
@@ -14,11 +14,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>HKL</t>
   </si>
   <si>
+    <t>EA_5</t>
+  </si>
+  <si>
+    <t>EA_2.5</t>
+  </si>
+  <si>
+    <t>EA_10</t>
+  </si>
+  <si>
+    <t>EA_15</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_2.5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_10</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_15</t>
+  </si>
+  <si>
+    <t>CLR_5</t>
+  </si>
+  <si>
+    <t>CLR_2.5</t>
+  </si>
+  <si>
+    <t>CLR_10</t>
+  </si>
+  <si>
+    <t>CLR_15</t>
+  </si>
+  <si>
     <t>BT8Hex_2.5</t>
   </si>
   <si>
@@ -70,6 +106,18 @@
     <t>Holden15</t>
   </si>
   <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>Rotation-90detTilt</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -80,6 +128,15 @@
   </si>
   <si>
     <t>HexGrid-90degTilt15degRes</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-90</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-60 Weighted</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-30</t>
   </si>
   <si>
     <t>[2, 1, 1]</t>
@@ -491,7 +548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T23"/>
+  <dimension ref="A1:T42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -564,58 +621,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -626,58 +683,58 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.000502449319027</v>
+        <v>1.005335035381843</v>
       </c>
       <c r="D3">
-        <v>0.9979661321331535</v>
+        <v>0.978870786959653</v>
       </c>
       <c r="E3">
-        <v>1.00051930039003</v>
+        <v>1.005187384639769</v>
       </c>
       <c r="F3">
-        <v>0.9979661321331535</v>
+        <v>0.978870786959653</v>
       </c>
       <c r="G3">
-        <v>1.00051930039003</v>
+        <v>1.005187384639769</v>
       </c>
       <c r="H3">
-        <v>1.001336654813797</v>
+        <v>1.014254891628241</v>
       </c>
       <c r="I3">
-        <v>0.9988852731160018</v>
+        <v>0.9883447621181513</v>
       </c>
       <c r="J3">
-        <v>1.000507360406138</v>
+        <v>1.005291985749278</v>
       </c>
       <c r="K3">
-        <v>1.00051930039003</v>
+        <v>1.005187384639769</v>
       </c>
       <c r="L3">
-        <v>1.000502449319027</v>
+        <v>1.005335035381843</v>
       </c>
       <c r="M3">
-        <v>0.9992342907260903</v>
+        <v>0.992102911170748</v>
       </c>
       <c r="N3">
-        <v>0.9992342907260903</v>
+        <v>0.992102911170748</v>
       </c>
       <c r="O3">
-        <v>0.9991179515227274</v>
+        <v>0.9908501948198825</v>
       </c>
       <c r="P3">
-        <v>0.9996626272807368</v>
+        <v>0.9964644023270884</v>
       </c>
       <c r="Q3">
-        <v>0.9996626272807366</v>
+        <v>0.9964644023270885</v>
       </c>
       <c r="R3">
-        <v>0.9998767955580599</v>
+        <v>0.9986451479052587</v>
       </c>
       <c r="S3">
-        <v>0.9998767955580599</v>
+        <v>0.9986451479052587</v>
       </c>
       <c r="T3">
-        <v>0.9999528616963579</v>
+        <v>0.9995474744128227</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -688,58 +745,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.000969866443967</v>
+        <v>1.004883017398435</v>
       </c>
       <c r="D4">
-        <v>0.9960734348970961</v>
+        <v>0.9806682983619078</v>
       </c>
       <c r="E4">
-        <v>1.00100283813276</v>
+        <v>1.00474275929556</v>
       </c>
       <c r="F4">
-        <v>0.9960734348970961</v>
+        <v>0.9806682983619078</v>
       </c>
       <c r="G4">
-        <v>1.00100283813276</v>
+        <v>1.00474275929556</v>
       </c>
       <c r="H4">
-        <v>1.002580028711294</v>
+        <v>1.013048100672756</v>
       </c>
       <c r="I4">
-        <v>0.9978480202935387</v>
+        <v>0.9893351043701054</v>
       </c>
       <c r="J4">
-        <v>1.000979476287905</v>
+        <v>1.004842123248232</v>
       </c>
       <c r="K4">
-        <v>1.00100283813276</v>
+        <v>1.00474275929556</v>
       </c>
       <c r="L4">
-        <v>1.000969866443967</v>
+        <v>1.004883017398435</v>
       </c>
       <c r="M4">
-        <v>0.9985216506705318</v>
+        <v>0.9927756578801716</v>
       </c>
       <c r="N4">
-        <v>0.9985216506705318</v>
+        <v>0.9927756578801716</v>
       </c>
       <c r="O4">
-        <v>0.9982971072115342</v>
+        <v>0.9916288067101496</v>
       </c>
       <c r="P4">
-        <v>0.9993487131579412</v>
+        <v>0.9967646916853009</v>
       </c>
       <c r="Q4">
-        <v>0.9993487131579412</v>
+        <v>0.9967646916853008</v>
       </c>
       <c r="R4">
-        <v>0.9997622444016458</v>
+        <v>0.9987592085878655</v>
       </c>
       <c r="S4">
-        <v>0.9997622444016458</v>
+        <v>0.9987592085878655</v>
       </c>
       <c r="T4">
-        <v>0.9999089441277603</v>
+        <v>0.9995865672244992</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -750,58 +807,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.001859599711938</v>
+        <v>1.006194994420487</v>
       </c>
       <c r="D5">
-        <v>0.9924771057688319</v>
+        <v>0.9754516729649595</v>
       </c>
       <c r="E5">
-        <v>1.00191875199464</v>
+        <v>1.006032842021564</v>
       </c>
       <c r="F5">
-        <v>0.9924771057688319</v>
+        <v>0.9754516729649595</v>
       </c>
       <c r="G5">
-        <v>1.00191875199464</v>
+        <v>1.006032842021564</v>
       </c>
       <c r="H5">
-        <v>1.004947658077869</v>
+        <v>1.016550877331538</v>
       </c>
       <c r="I5">
-        <v>0.9958761000721768</v>
+        <v>0.9864608952830191</v>
       </c>
       <c r="J5">
-        <v>1.001876838826113</v>
+        <v>1.006147713018868</v>
       </c>
       <c r="K5">
-        <v>1.00191875199464</v>
+        <v>1.006032842021564</v>
       </c>
       <c r="L5">
-        <v>1.001859599711938</v>
+        <v>1.006194994420487</v>
       </c>
       <c r="M5">
-        <v>0.997168352740385</v>
+        <v>0.990823333692723</v>
       </c>
       <c r="N5">
-        <v>0.997168352740385</v>
+        <v>0.990823333692723</v>
       </c>
       <c r="O5">
-        <v>0.9967376018509823</v>
+        <v>0.989369187556155</v>
       </c>
       <c r="P5">
-        <v>0.9987518191584699</v>
+        <v>0.9958931698023368</v>
       </c>
       <c r="Q5">
-        <v>0.9987518191584699</v>
+        <v>0.9958931698023368</v>
       </c>
       <c r="R5">
-        <v>0.9995435523675124</v>
+        <v>0.9984280878571437</v>
       </c>
       <c r="S5">
-        <v>0.9995435523675124</v>
+        <v>0.9984280878571437</v>
       </c>
       <c r="T5">
-        <v>0.9998260090752614</v>
+        <v>0.9994731658400725</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -812,58 +869,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.002727907058603</v>
+        <v>1.006999749318181</v>
       </c>
       <c r="D6">
-        <v>0.98896721946965</v>
+        <v>0.9722527767613633</v>
       </c>
       <c r="E6">
-        <v>1.002812717264504</v>
+        <v>1.006823508068182</v>
       </c>
       <c r="F6">
-        <v>0.98896721946965</v>
+        <v>0.9722527767613633</v>
       </c>
       <c r="G6">
-        <v>1.002812717264504</v>
+        <v>1.006823508068182</v>
       </c>
       <c r="H6">
-        <v>1.007258248192955</v>
+        <v>1.018699575454546</v>
       </c>
       <c r="I6">
-        <v>0.9939516027508507</v>
+        <v>0.9846982485795448</v>
       </c>
       <c r="J6">
-        <v>1.002752625559023</v>
+        <v>1.006948358977273</v>
       </c>
       <c r="K6">
-        <v>1.002812717264504</v>
+        <v>1.006823508068182</v>
       </c>
       <c r="L6">
-        <v>1.002727907058603</v>
+        <v>1.006999749318181</v>
       </c>
       <c r="M6">
-        <v>0.9958475632641264</v>
+        <v>0.9896262630397723</v>
       </c>
       <c r="N6">
-        <v>0.9958475632641264</v>
+        <v>0.9896262630397723</v>
       </c>
       <c r="O6">
-        <v>0.9952155764263678</v>
+        <v>0.9879835915530298</v>
       </c>
       <c r="P6">
-        <v>0.9981692812642522</v>
+        <v>0.9953586780492422</v>
       </c>
       <c r="Q6">
-        <v>0.9981692812642522</v>
+        <v>0.9953586780492422</v>
       </c>
       <c r="R6">
-        <v>0.9993301402643151</v>
+        <v>0.9982248855539771</v>
       </c>
       <c r="S6">
-        <v>0.9993301402643151</v>
+        <v>0.9982248855539771</v>
       </c>
       <c r="T6">
-        <v>0.9997450533825974</v>
+        <v>0.9994037028598485</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -874,58 +931,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.000036413773947</v>
+        <v>1.002897787698272</v>
       </c>
       <c r="D7">
-        <v>0.9998561536498887</v>
+        <v>0.9881162604072437</v>
       </c>
       <c r="E7">
-        <v>1.000035148843486</v>
+        <v>1.003102581094377</v>
       </c>
       <c r="F7">
-        <v>0.9998561536498887</v>
+        <v>0.9881162604072437</v>
       </c>
       <c r="G7">
-        <v>1.000035148843486</v>
+        <v>1.003102581094377</v>
       </c>
       <c r="H7">
-        <v>1.000097344290016</v>
+        <v>1.007688431128858</v>
       </c>
       <c r="I7">
-        <v>0.9999205920110743</v>
+        <v>0.9935113429442022</v>
       </c>
       <c r="J7">
-        <v>1.000036043454333</v>
+        <v>1.00295749540339</v>
       </c>
       <c r="K7">
-        <v>1.000035148843486</v>
+        <v>1.003102581094377</v>
       </c>
       <c r="L7">
-        <v>1.000036413773947</v>
+        <v>1.002897787698272</v>
       </c>
       <c r="M7">
-        <v>0.9999462837119177</v>
+        <v>0.9955070240527577</v>
       </c>
       <c r="N7">
-        <v>0.9999462837119177</v>
+        <v>0.9955070240527577</v>
       </c>
       <c r="O7">
-        <v>0.9999377198116366</v>
+        <v>0.9948417970165725</v>
       </c>
       <c r="P7">
-        <v>0.9999759054224405</v>
+        <v>0.998038876399964</v>
       </c>
       <c r="Q7">
-        <v>0.9999759054224405</v>
+        <v>0.9980388763999642</v>
       </c>
       <c r="R7">
-        <v>0.999990716277702</v>
+        <v>0.9993048025735674</v>
       </c>
       <c r="S7">
-        <v>0.999990716277702</v>
+        <v>0.9993048025735674</v>
       </c>
       <c r="T7">
-        <v>0.999996949337124</v>
+        <v>0.9997123164460571</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -936,58 +993,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.00009268553505</v>
+        <v>1.003015531359507</v>
       </c>
       <c r="D8">
-        <v>0.999633112635789</v>
+        <v>0.9876505711523742</v>
       </c>
       <c r="E8">
-        <v>1.000089988485535</v>
+        <v>1.003216624929884</v>
       </c>
       <c r="F8">
-        <v>0.999633112635789</v>
+        <v>0.9876505711523742</v>
       </c>
       <c r="G8">
-        <v>1.000089988485535</v>
+        <v>1.003216624929884</v>
       </c>
       <c r="H8">
-        <v>1.000247675356345</v>
+        <v>1.008003119316952</v>
       </c>
       <c r="I8">
-        <v>0.9997975880161808</v>
+        <v>0.9932543575735912</v>
       </c>
       <c r="J8">
-        <v>1.000091897809959</v>
+        <v>1.003074160411213</v>
       </c>
       <c r="K8">
-        <v>1.000089988485535</v>
+        <v>1.003216624929884</v>
       </c>
       <c r="L8">
-        <v>1.00009268553505</v>
+        <v>1.003015531359507</v>
       </c>
       <c r="M8">
-        <v>0.9998628990854195</v>
+        <v>0.9953330512559407</v>
       </c>
       <c r="N8">
-        <v>0.9998628990854195</v>
+        <v>0.9953330512559407</v>
       </c>
       <c r="O8">
-        <v>0.9998411287290065</v>
+        <v>0.9946401533618242</v>
       </c>
       <c r="P8">
-        <v>0.9999385955521248</v>
+        <v>0.9979609091472552</v>
       </c>
       <c r="Q8">
-        <v>0.9999385955521248</v>
+        <v>0.9979609091472552</v>
       </c>
       <c r="R8">
-        <v>0.9999764437854775</v>
+        <v>0.9992748380929125</v>
       </c>
       <c r="S8">
-        <v>0.9999764437854775</v>
+        <v>0.9992748380929125</v>
       </c>
       <c r="T8">
-        <v>0.9999921579731432</v>
+        <v>0.9997023941239203</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -998,58 +1055,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.0001294778133</v>
+        <v>1.003116559883853</v>
       </c>
       <c r="D9">
-        <v>0.9994857301994455</v>
+        <v>0.9872541546833085</v>
       </c>
       <c r="E9">
-        <v>1.000126928886031</v>
+        <v>1.003312265046289</v>
       </c>
       <c r="F9">
-        <v>0.9994857301994455</v>
+        <v>0.9872541546833085</v>
       </c>
       <c r="G9">
-        <v>1.000126928886031</v>
+        <v>1.003312265046289</v>
       </c>
       <c r="H9">
-        <v>1.00034576067871</v>
+        <v>1.008273555665105</v>
       </c>
       <c r="I9">
-        <v>0.9997165620321992</v>
+        <v>0.9930350814134485</v>
       </c>
       <c r="J9">
-        <v>1.000128732783841</v>
+        <v>1.003173617972384</v>
       </c>
       <c r="K9">
-        <v>1.000126928886031</v>
+        <v>1.003312265046289</v>
       </c>
       <c r="L9">
-        <v>1.0001294778133</v>
+        <v>1.003116559883853</v>
       </c>
       <c r="M9">
-        <v>0.9998076040063726</v>
+        <v>0.9951853572835809</v>
       </c>
       <c r="N9">
-        <v>0.9998076040063726</v>
+        <v>0.9951853572835809</v>
       </c>
       <c r="O9">
-        <v>0.9997772566816482</v>
+        <v>0.9944685986602035</v>
       </c>
       <c r="P9">
-        <v>0.9999140456329254</v>
+        <v>0.9978943265378172</v>
       </c>
       <c r="Q9">
-        <v>0.9999140456329254</v>
+        <v>0.9978943265378172</v>
       </c>
       <c r="R9">
-        <v>0.9999672664462018</v>
+        <v>0.9992488111649351</v>
       </c>
       <c r="S9">
-        <v>0.9999672664462018</v>
+        <v>0.9992488111649351</v>
       </c>
       <c r="T9">
-        <v>0.9999888653989211</v>
+        <v>0.9996942057773982</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1060,58 +1117,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.000279567051041</v>
+        <v>1.003352270012191</v>
       </c>
       <c r="D10">
-        <v>0.9988918489663254</v>
+        <v>0.9863112097625953</v>
       </c>
       <c r="E10">
-        <v>1.000272486759604</v>
+        <v>1.00354804841308</v>
       </c>
       <c r="F10">
-        <v>0.9988918489663254</v>
+        <v>0.9863112097625953</v>
       </c>
       <c r="G10">
-        <v>1.000272486759604</v>
+        <v>1.00354804841308</v>
       </c>
       <c r="H10">
-        <v>1.000746860922749</v>
+        <v>1.008902103181461</v>
       </c>
       <c r="I10">
-        <v>0.9993888793534049</v>
+        <v>0.9925164785493304</v>
       </c>
       <c r="J10">
-        <v>1.000277501911529</v>
+        <v>1.003409349178918</v>
       </c>
       <c r="K10">
-        <v>1.000272486759604</v>
+        <v>1.00354804841308</v>
       </c>
       <c r="L10">
-        <v>1.000279567051041</v>
+        <v>1.003352270012191</v>
       </c>
       <c r="M10">
-        <v>0.9995857080086833</v>
+        <v>0.9948317398873932</v>
       </c>
       <c r="N10">
-        <v>0.9995857080086833</v>
+        <v>0.9948317398873932</v>
       </c>
       <c r="O10">
-        <v>0.9995200984569239</v>
+        <v>0.9940599861080389</v>
       </c>
       <c r="P10">
-        <v>0.9998146342589903</v>
+        <v>0.9977371760626221</v>
       </c>
       <c r="Q10">
-        <v>0.9998146342589903</v>
+        <v>0.9977371760626221</v>
       </c>
       <c r="R10">
-        <v>0.9999290973841438</v>
+        <v>0.9991898941502366</v>
       </c>
       <c r="S10">
-        <v>0.9999290973841438</v>
+        <v>0.9991898941502366</v>
       </c>
       <c r="T10">
-        <v>0.9999761908274424</v>
+        <v>0.9996732431829294</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1122,58 +1179,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.000462994054232</v>
+        <v>1.000548551368762</v>
       </c>
       <c r="D11">
-        <v>0.9981603911914795</v>
+        <v>0.9977792826605693</v>
       </c>
       <c r="E11">
-        <v>1.000454336686114</v>
+        <v>1.000567111043198</v>
       </c>
       <c r="F11">
-        <v>0.9981603911914795</v>
+        <v>0.9977792826605693</v>
       </c>
       <c r="G11">
-        <v>1.000454336686114</v>
+        <v>1.000567111043198</v>
       </c>
       <c r="H11">
-        <v>1.001236297170131</v>
+        <v>1.001459268138638</v>
       </c>
       <c r="I11">
-        <v>0.9989862136374877</v>
+        <v>0.9987829010239744</v>
       </c>
       <c r="J11">
-        <v>1.000460469810071</v>
+        <v>1.000553960769392</v>
       </c>
       <c r="K11">
-        <v>1.000454336686114</v>
+        <v>1.000567111043198</v>
       </c>
       <c r="L11">
-        <v>1.000462994054232</v>
+        <v>1.000548551368762</v>
       </c>
       <c r="M11">
-        <v>0.9993116926228556</v>
+        <v>0.9991639170146658</v>
       </c>
       <c r="N11">
-        <v>0.9993116926228556</v>
+        <v>0.9991639170146658</v>
       </c>
       <c r="O11">
-        <v>0.999203199627733</v>
+        <v>0.9990369116844353</v>
       </c>
       <c r="P11">
-        <v>0.9996925739772752</v>
+        <v>0.9996316483575099</v>
       </c>
       <c r="Q11">
-        <v>0.9996925739772754</v>
+        <v>0.9996316483575098</v>
       </c>
       <c r="R11">
-        <v>0.9998830146544851</v>
+        <v>0.999865514028932</v>
       </c>
       <c r="S11">
-        <v>0.9998830146544851</v>
+        <v>0.999865514028932</v>
       </c>
       <c r="T11">
-        <v>0.9999601170915859</v>
+        <v>0.9999485125007558</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1184,58 +1241,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.995839559082411</v>
+        <v>1.000261963886315</v>
       </c>
       <c r="D12">
-        <v>1.016193687138772</v>
+        <v>0.9989383605215478</v>
       </c>
       <c r="E12">
-        <v>0.9961532012859831</v>
+        <v>1.00027161389496</v>
       </c>
       <c r="F12">
-        <v>1.016193687138772</v>
+        <v>0.9989383605215478</v>
       </c>
       <c r="G12">
-        <v>0.9961532012859831</v>
+        <v>1.00027161389496</v>
       </c>
       <c r="H12">
-        <v>0.9888457516192121</v>
+        <v>1.0006967318658</v>
       </c>
       <c r="I12">
-        <v>1.008979122479616</v>
+        <v>0.9994183319946429</v>
       </c>
       <c r="J12">
-        <v>0.99593099940129</v>
+        <v>1.000264775732809</v>
       </c>
       <c r="K12">
-        <v>0.9961532012859831</v>
+        <v>1.00027161389496</v>
       </c>
       <c r="L12">
-        <v>0.995839559082411</v>
+        <v>1.000261963886315</v>
       </c>
       <c r="M12">
-        <v>1.006016623110591</v>
+        <v>0.9996001622039317</v>
       </c>
       <c r="N12">
-        <v>1.006016623110591</v>
+        <v>0.9996001622039317</v>
       </c>
       <c r="O12">
-        <v>1.007004122900266</v>
+        <v>0.9995395521341687</v>
       </c>
       <c r="P12">
-        <v>1.002728815835722</v>
+        <v>0.9998239794342744</v>
       </c>
       <c r="Q12">
-        <v>1.002728815835722</v>
+        <v>0.9998239794342744</v>
       </c>
       <c r="R12">
-        <v>1.001084912198287</v>
+        <v>0.9999358880494458</v>
       </c>
       <c r="S12">
-        <v>1.001084912198287</v>
+        <v>0.9999358880494458</v>
       </c>
       <c r="T12">
-        <v>1.000323720167881</v>
+        <v>0.9999752963160126</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1246,58 +1303,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9989774625537183</v>
+        <v>1.000881417080409</v>
       </c>
       <c r="D13">
-        <v>1.004281490267081</v>
+        <v>0.9964210257749586</v>
       </c>
       <c r="E13">
-        <v>0.9988435316915255</v>
+        <v>1.000918737557076</v>
       </c>
       <c r="F13">
-        <v>1.004281490267081</v>
+        <v>0.9964210257749586</v>
       </c>
       <c r="G13">
-        <v>0.9988435316915255</v>
+        <v>1.000918737557076</v>
       </c>
       <c r="H13">
-        <v>0.997298734995314</v>
+        <v>1.00234332904498</v>
       </c>
       <c r="I13">
-        <v>1.00232382191961</v>
+        <v>0.9980402019719884</v>
       </c>
       <c r="J13">
-        <v>0.9989384104547494</v>
+        <v>1.000892293959173</v>
       </c>
       <c r="K13">
-        <v>0.9988435316915255</v>
+        <v>1.000918737557076</v>
       </c>
       <c r="L13">
-        <v>0.9989774625537183</v>
+        <v>1.000881417080409</v>
       </c>
       <c r="M13">
-        <v>1.0016294764104</v>
+        <v>0.9986512214276836</v>
       </c>
       <c r="N13">
-        <v>1.0016294764104</v>
+        <v>0.9986512214276836</v>
       </c>
       <c r="O13">
-        <v>1.00186092491347</v>
+        <v>0.9984475482757852</v>
       </c>
       <c r="P13">
-        <v>1.000700828170775</v>
+        <v>0.999407060137481</v>
       </c>
       <c r="Q13">
-        <v>1.000700828170775</v>
+        <v>0.999407060137481</v>
       </c>
       <c r="R13">
-        <v>1.000236504050963</v>
+        <v>0.9997849794923799</v>
       </c>
       <c r="S13">
-        <v>1.000236504050963</v>
+        <v>0.9997849794923799</v>
       </c>
       <c r="T13">
-        <v>1.000110575313666</v>
+        <v>0.9999161675647641</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1308,58 +1365,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9958438400036426</v>
+        <v>1.001401697325328</v>
       </c>
       <c r="D14">
-        <v>1.016200288245715</v>
+        <v>0.9943302294935155</v>
       </c>
       <c r="E14">
-        <v>0.9961408743141079</v>
+        <v>1.001445791105787</v>
       </c>
       <c r="F14">
-        <v>1.016200288245715</v>
+        <v>0.9943302294935155</v>
       </c>
       <c r="G14">
-        <v>0.9961408743141079</v>
+        <v>1.001445791105787</v>
       </c>
       <c r="H14">
-        <v>0.9888603357359418</v>
+        <v>1.00372944614148</v>
       </c>
       <c r="I14">
-        <v>1.008978914217928</v>
+        <v>0.9968918367203705</v>
       </c>
       <c r="J14">
-        <v>0.9959304399661839</v>
+        <v>1.001414546608582</v>
       </c>
       <c r="K14">
-        <v>0.9961408743141079</v>
+        <v>1.001445791105787</v>
       </c>
       <c r="L14">
-        <v>0.9958438400036426</v>
+        <v>1.001401697325328</v>
       </c>
       <c r="M14">
-        <v>1.006022064124679</v>
+        <v>0.9978659634094217</v>
       </c>
       <c r="N14">
-        <v>1.006022064124679</v>
+        <v>0.9978659634094217</v>
       </c>
       <c r="O14">
-        <v>1.007007680822428</v>
+        <v>0.9975412545130714</v>
       </c>
       <c r="P14">
-        <v>1.002728334187822</v>
+        <v>0.9990592393082099</v>
       </c>
       <c r="Q14">
-        <v>1.002728334187822</v>
+        <v>0.9990592393082099</v>
       </c>
       <c r="R14">
-        <v>1.001081469219393</v>
+        <v>0.9996558772576041</v>
       </c>
       <c r="S14">
-        <v>1.001081469219393</v>
+        <v>0.9996558772576041</v>
       </c>
       <c r="T14">
-        <v>1.000325782080586</v>
+        <v>0.9998689245658436</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1370,58 +1427,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9989758828252507</v>
+        <v>1.000502449319027</v>
       </c>
       <c r="D15">
-        <v>1.004277941425143</v>
+        <v>0.9979661321331535</v>
       </c>
       <c r="E15">
-        <v>0.9988488598131477</v>
+        <v>1.00051930039003</v>
       </c>
       <c r="F15">
-        <v>1.004277941425143</v>
+        <v>0.9979661321331535</v>
       </c>
       <c r="G15">
-        <v>0.9988488598131477</v>
+        <v>1.00051930039003</v>
       </c>
       <c r="H15">
-        <v>0.9972932088485219</v>
+        <v>1.001336654813797</v>
       </c>
       <c r="I15">
-        <v>1.002323478611435</v>
+        <v>0.9988852731160018</v>
       </c>
       <c r="J15">
-        <v>0.9989388483370064</v>
+        <v>1.000507360406138</v>
       </c>
       <c r="K15">
-        <v>0.9988488598131477</v>
+        <v>1.00051930039003</v>
       </c>
       <c r="L15">
-        <v>0.9989758828252507</v>
+        <v>1.000502449319027</v>
       </c>
       <c r="M15">
-        <v>1.001626912125197</v>
+        <v>0.9992342907260903</v>
       </c>
       <c r="N15">
-        <v>1.001626912125197</v>
+        <v>0.9992342907260903</v>
       </c>
       <c r="O15">
-        <v>1.001859100953943</v>
+        <v>0.9991179515227274</v>
       </c>
       <c r="P15">
-        <v>1.000700894687847</v>
+        <v>0.9996626272807368</v>
       </c>
       <c r="Q15">
-        <v>1.000700894687847</v>
+        <v>0.9996626272807366</v>
       </c>
       <c r="R15">
-        <v>1.000237885969172</v>
+        <v>0.9998767955580599</v>
       </c>
       <c r="S15">
-        <v>1.000237885969172</v>
+        <v>0.9998767955580599</v>
       </c>
       <c r="T15">
-        <v>1.000109703310084</v>
+        <v>0.9999528616963579</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1432,58 +1489,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.009810568569297</v>
+        <v>1.000969866443967</v>
       </c>
       <c r="D16">
-        <v>0.9603494133932654</v>
+        <v>0.9960734348970961</v>
       </c>
       <c r="E16">
-        <v>1.010096392119909</v>
+        <v>1.00100283813276</v>
       </c>
       <c r="F16">
-        <v>0.9603494133932654</v>
+        <v>0.9960734348970961</v>
       </c>
       <c r="G16">
-        <v>1.010096392119909</v>
+        <v>1.00100283813276</v>
       </c>
       <c r="H16">
-        <v>1.026107067761042</v>
+        <v>1.002580028711294</v>
       </c>
       <c r="I16">
-        <v>0.9782583270470501</v>
+        <v>0.9978480202935387</v>
       </c>
       <c r="J16">
-        <v>1.009893894187641</v>
+        <v>1.000979476287905</v>
       </c>
       <c r="K16">
-        <v>1.010096392119909</v>
+        <v>1.00100283813276</v>
       </c>
       <c r="L16">
-        <v>1.009810568569297</v>
+        <v>1.000969866443967</v>
       </c>
       <c r="M16">
-        <v>0.9850799909812813</v>
+        <v>0.9985216506705318</v>
       </c>
       <c r="N16">
-        <v>0.9850799909812813</v>
+        <v>0.9985216506705318</v>
       </c>
       <c r="O16">
-        <v>0.9828061030032043</v>
+        <v>0.9982971072115342</v>
       </c>
       <c r="P16">
-        <v>0.9934187913608238</v>
+        <v>0.9993487131579412</v>
       </c>
       <c r="Q16">
-        <v>0.9934187913608238</v>
+        <v>0.9993487131579412</v>
       </c>
       <c r="R16">
-        <v>0.9975881915505951</v>
+        <v>0.9997622444016458</v>
       </c>
       <c r="S16">
-        <v>0.9975881915505951</v>
+        <v>0.9997622444016458</v>
       </c>
       <c r="T16">
-        <v>0.9990859438463674</v>
+        <v>0.9999089441277603</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1494,58 +1551,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.008049010581944</v>
+        <v>1.001859599711938</v>
       </c>
       <c r="D17">
-        <v>0.967595100465848</v>
+        <v>0.9924771057688319</v>
       </c>
       <c r="E17">
-        <v>1.008195213819767</v>
+        <v>1.00191875199464</v>
       </c>
       <c r="F17">
-        <v>0.967595100465848</v>
+        <v>0.9924771057688319</v>
       </c>
       <c r="G17">
-        <v>1.008195213819767</v>
+        <v>1.00191875199464</v>
       </c>
       <c r="H17">
-        <v>1.021436177364094</v>
+        <v>1.004947658077869</v>
       </c>
       <c r="I17">
-        <v>0.9822111421928711</v>
+        <v>0.9958761000721768</v>
       </c>
       <c r="J17">
-        <v>1.008091631371457</v>
+        <v>1.001876838826113</v>
       </c>
       <c r="K17">
-        <v>1.008195213819767</v>
+        <v>1.00191875199464</v>
       </c>
       <c r="L17">
-        <v>1.008049010581944</v>
+        <v>1.001859599711938</v>
       </c>
       <c r="M17">
-        <v>0.9878220555238959</v>
+        <v>0.997168352740385</v>
       </c>
       <c r="N17">
-        <v>0.9878220555238959</v>
+        <v>0.997168352740385</v>
       </c>
       <c r="O17">
-        <v>0.985951751080221</v>
+        <v>0.9967376018509823</v>
       </c>
       <c r="P17">
-        <v>0.9946131082891864</v>
+        <v>0.9987518191584699</v>
       </c>
       <c r="Q17">
-        <v>0.9946131082891864</v>
+        <v>0.9987518191584699</v>
       </c>
       <c r="R17">
-        <v>0.9980086346718315</v>
+        <v>0.9995435523675124</v>
       </c>
       <c r="S17">
-        <v>0.9980086346718315</v>
+        <v>0.9995435523675124</v>
       </c>
       <c r="T17">
-        <v>0.9992630459659969</v>
+        <v>0.9998260090752614</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1556,58 +1613,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.004505704496864</v>
+        <v>1.002727907058603</v>
       </c>
       <c r="D18">
-        <v>0.9821623760609947</v>
+        <v>0.98896721946965</v>
       </c>
       <c r="E18">
-        <v>1.004376068776553</v>
+        <v>1.002812717264504</v>
       </c>
       <c r="F18">
-        <v>0.9821623760609947</v>
+        <v>0.98896721946965</v>
       </c>
       <c r="G18">
-        <v>1.004376068776553</v>
+        <v>1.002812717264504</v>
       </c>
       <c r="H18">
-        <v>1.012039906809058</v>
+        <v>1.007258248192955</v>
       </c>
       <c r="I18">
-        <v>0.9901593076936404</v>
+        <v>0.9939516027508507</v>
       </c>
       <c r="J18">
-        <v>1.004467906653415</v>
+        <v>1.002752625559023</v>
       </c>
       <c r="K18">
-        <v>1.004376068776553</v>
+        <v>1.002812717264504</v>
       </c>
       <c r="L18">
-        <v>1.004505704496864</v>
+        <v>1.002727907058603</v>
       </c>
       <c r="M18">
-        <v>0.9933340402789295</v>
+        <v>0.9958475632641264</v>
       </c>
       <c r="N18">
-        <v>0.9933340402789295</v>
+        <v>0.9958475632641264</v>
       </c>
       <c r="O18">
-        <v>0.9922757960838332</v>
+        <v>0.9952155764263678</v>
       </c>
       <c r="P18">
-        <v>0.9970147164448041</v>
+        <v>0.9981692812642522</v>
       </c>
       <c r="Q18">
-        <v>0.9970147164448041</v>
+        <v>0.9981692812642522</v>
       </c>
       <c r="R18">
-        <v>0.9988550545277415</v>
+        <v>0.9993301402643151</v>
       </c>
       <c r="S18">
-        <v>0.9988550545277415</v>
+        <v>0.9993301402643151</v>
       </c>
       <c r="T18">
-        <v>0.9996185450817543</v>
+        <v>0.9997450533825974</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1618,58 +1675,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.004928808333047</v>
+        <v>1.000036413773947</v>
       </c>
       <c r="D19">
-        <v>0.9805482426836194</v>
+        <v>0.9998561536498887</v>
       </c>
       <c r="E19">
-        <v>1.004744376375495</v>
+        <v>1.000035148843486</v>
       </c>
       <c r="F19">
-        <v>0.9805482426836194</v>
+        <v>0.9998561536498887</v>
       </c>
       <c r="G19">
-        <v>1.004744376375495</v>
+        <v>1.000035148843486</v>
       </c>
       <c r="H19">
-        <v>1.0131786160109</v>
+        <v>1.000097344290016</v>
       </c>
       <c r="I19">
-        <v>0.9892588552230872</v>
+        <v>0.9999205920110743</v>
       </c>
       <c r="J19">
-        <v>1.004875033046569</v>
+        <v>1.000036043454333</v>
       </c>
       <c r="K19">
-        <v>1.004744376375495</v>
+        <v>1.000035148843486</v>
       </c>
       <c r="L19">
-        <v>1.004928808333047</v>
+        <v>1.000036413773947</v>
       </c>
       <c r="M19">
-        <v>0.992738525508333</v>
+        <v>0.9999462837119177</v>
       </c>
       <c r="N19">
-        <v>0.992738525508333</v>
+        <v>0.9999462837119177</v>
       </c>
       <c r="O19">
-        <v>0.9915786354132511</v>
+        <v>0.9999377198116366</v>
       </c>
       <c r="P19">
-        <v>0.9967404757973869</v>
+        <v>0.9999759054224405</v>
       </c>
       <c r="Q19">
-        <v>0.9967404757973869</v>
+        <v>0.9999759054224405</v>
       </c>
       <c r="R19">
-        <v>0.9987414509419139</v>
+        <v>0.999990716277702</v>
       </c>
       <c r="S19">
-        <v>0.9987414509419139</v>
+        <v>0.999990716277702</v>
       </c>
       <c r="T19">
-        <v>0.9995889886121195</v>
+        <v>0.999996949337124</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1680,58 +1737,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.000003218537943</v>
+        <v>1.00009268553505</v>
       </c>
       <c r="D20">
-        <v>0.999993827691228</v>
+        <v>0.999633112635789</v>
       </c>
       <c r="E20">
-        <v>0.9999985285246776</v>
+        <v>1.000089988485535</v>
       </c>
       <c r="F20">
-        <v>0.999993827691228</v>
+        <v>0.999633112635789</v>
       </c>
       <c r="G20">
-        <v>0.9999985285246776</v>
+        <v>1.000089988485535</v>
       </c>
       <c r="H20">
-        <v>1.000009475562039</v>
+        <v>1.000247675356345</v>
       </c>
       <c r="I20">
-        <v>0.9999955202073563</v>
+        <v>0.9997975880161808</v>
       </c>
       <c r="J20">
-        <v>1.00000184976786</v>
+        <v>1.000091897809959</v>
       </c>
       <c r="K20">
-        <v>0.9999985285246776</v>
+        <v>1.000089988485535</v>
       </c>
       <c r="L20">
-        <v>1.000003218537943</v>
+        <v>1.00009268553505</v>
       </c>
       <c r="M20">
-        <v>0.9999985231145854</v>
+        <v>0.9998628990854195</v>
       </c>
       <c r="N20">
-        <v>0.9999985231145854</v>
+        <v>0.9998628990854195</v>
       </c>
       <c r="O20">
-        <v>0.999997522145509</v>
+        <v>0.9998411287290065</v>
       </c>
       <c r="P20">
-        <v>0.9999985249179494</v>
+        <v>0.9999385955521248</v>
       </c>
       <c r="Q20">
-        <v>0.9999985249179494</v>
+        <v>0.9999385955521248</v>
       </c>
       <c r="R20">
-        <v>0.9999985258196314</v>
+        <v>0.9999764437854775</v>
       </c>
       <c r="S20">
-        <v>0.9999985258196314</v>
+        <v>0.9999764437854775</v>
       </c>
       <c r="T20">
-        <v>1.000000403381851</v>
+        <v>0.9999921579731432</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1742,58 +1799,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>1.000043216881216</v>
+        <v>1.0001294778133</v>
       </c>
       <c r="D21">
-        <v>0.9998207271997852</v>
+        <v>0.9994857301994455</v>
       </c>
       <c r="E21">
-        <v>1.000047702320549</v>
+        <v>1.000126928886031</v>
       </c>
       <c r="F21">
-        <v>0.9998207271997852</v>
+        <v>0.9994857301994455</v>
       </c>
       <c r="G21">
-        <v>1.000047702320549</v>
+        <v>1.000126928886031</v>
       </c>
       <c r="H21">
-        <v>1.000114389615111</v>
+        <v>1.00034576067871</v>
       </c>
       <c r="I21">
-        <v>0.9999024384148889</v>
+        <v>0.9997165620321992</v>
       </c>
       <c r="J21">
-        <v>1.000044522962342</v>
+        <v>1.000128732783841</v>
       </c>
       <c r="K21">
-        <v>1.000047702320549</v>
+        <v>1.000126928886031</v>
       </c>
       <c r="L21">
-        <v>1.000043216881216</v>
+        <v>1.0001294778133</v>
       </c>
       <c r="M21">
-        <v>0.9999319720405004</v>
+        <v>0.9998076040063726</v>
       </c>
       <c r="N21">
-        <v>0.9999319720405004</v>
+        <v>0.9998076040063726</v>
       </c>
       <c r="O21">
-        <v>0.99992212749863</v>
+        <v>0.9997772566816482</v>
       </c>
       <c r="P21">
-        <v>0.9999705488005164</v>
+        <v>0.9999140456329254</v>
       </c>
       <c r="Q21">
-        <v>0.9999705488005164</v>
+        <v>0.9999140456329254</v>
       </c>
       <c r="R21">
-        <v>0.9999898371805245</v>
+        <v>0.9999672664462018</v>
       </c>
       <c r="S21">
-        <v>0.9999898371805245</v>
+        <v>0.9999672664462018</v>
       </c>
       <c r="T21">
-        <v>0.9999954995656485</v>
+        <v>0.9999888653989211</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1804,58 +1861,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.000157408612547</v>
+        <v>1.000279567051041</v>
       </c>
       <c r="D22">
-        <v>0.9993790519342259</v>
+        <v>0.9988918489663254</v>
       </c>
       <c r="E22">
-        <v>1.00015133401953</v>
+        <v>1.000272486759604</v>
       </c>
       <c r="F22">
-        <v>0.9993790519342259</v>
+        <v>0.9988918489663254</v>
       </c>
       <c r="G22">
-        <v>1.00015133401953</v>
+        <v>1.000272486759604</v>
       </c>
       <c r="H22">
-        <v>1.000420902890542</v>
+        <v>1.000746860922749</v>
       </c>
       <c r="I22">
-        <v>0.9996570747439673</v>
+        <v>0.9993888793534049</v>
       </c>
       <c r="J22">
-        <v>1.000155635565408</v>
+        <v>1.000277501911529</v>
       </c>
       <c r="K22">
-        <v>1.00015133401953</v>
+        <v>1.000272486759604</v>
       </c>
       <c r="L22">
-        <v>1.000157408612547</v>
+        <v>1.000279567051041</v>
       </c>
       <c r="M22">
-        <v>0.9997682302733866</v>
+        <v>0.9995857080086833</v>
       </c>
       <c r="N22">
-        <v>0.9997682302733866</v>
+        <v>0.9995857080086833</v>
       </c>
       <c r="O22">
-        <v>0.9997311784302468</v>
+        <v>0.9995200984569239</v>
       </c>
       <c r="P22">
-        <v>0.9998959315221011</v>
+        <v>0.9998146342589903</v>
       </c>
       <c r="Q22">
-        <v>0.9998959315221011</v>
+        <v>0.9998146342589903</v>
       </c>
       <c r="R22">
-        <v>0.9999597821464583</v>
+        <v>0.9999290973841438</v>
       </c>
       <c r="S22">
-        <v>0.9999597821464583</v>
+        <v>0.9999290973841438</v>
       </c>
       <c r="T22">
-        <v>0.9999869012943702</v>
+        <v>0.9999761908274424</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1866,58 +1923,1236 @@
         <v>21</v>
       </c>
       <c r="C23">
+        <v>1.000462994054232</v>
+      </c>
+      <c r="D23">
+        <v>0.9981603911914795</v>
+      </c>
+      <c r="E23">
+        <v>1.000454336686114</v>
+      </c>
+      <c r="F23">
+        <v>0.9981603911914795</v>
+      </c>
+      <c r="G23">
+        <v>1.000454336686114</v>
+      </c>
+      <c r="H23">
+        <v>1.001236297170131</v>
+      </c>
+      <c r="I23">
+        <v>0.9989862136374877</v>
+      </c>
+      <c r="J23">
+        <v>1.000460469810071</v>
+      </c>
+      <c r="K23">
+        <v>1.000454336686114</v>
+      </c>
+      <c r="L23">
+        <v>1.000462994054232</v>
+      </c>
+      <c r="M23">
+        <v>0.9993116926228556</v>
+      </c>
+      <c r="N23">
+        <v>0.9993116926228556</v>
+      </c>
+      <c r="O23">
+        <v>0.999203199627733</v>
+      </c>
+      <c r="P23">
+        <v>0.9996925739772752</v>
+      </c>
+      <c r="Q23">
+        <v>0.9996925739772754</v>
+      </c>
+      <c r="R23">
+        <v>0.9998830146544851</v>
+      </c>
+      <c r="S23">
+        <v>0.9998830146544851</v>
+      </c>
+      <c r="T23">
+        <v>0.9999601170915859</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.995839559082411</v>
+      </c>
+      <c r="D24">
+        <v>1.016193687138772</v>
+      </c>
+      <c r="E24">
+        <v>0.9961532012859831</v>
+      </c>
+      <c r="F24">
+        <v>1.016193687138772</v>
+      </c>
+      <c r="G24">
+        <v>0.9961532012859831</v>
+      </c>
+      <c r="H24">
+        <v>0.9888457516192121</v>
+      </c>
+      <c r="I24">
+        <v>1.008979122479616</v>
+      </c>
+      <c r="J24">
+        <v>0.99593099940129</v>
+      </c>
+      <c r="K24">
+        <v>0.9961532012859831</v>
+      </c>
+      <c r="L24">
+        <v>0.995839559082411</v>
+      </c>
+      <c r="M24">
+        <v>1.006016623110591</v>
+      </c>
+      <c r="N24">
+        <v>1.006016623110591</v>
+      </c>
+      <c r="O24">
+        <v>1.007004122900266</v>
+      </c>
+      <c r="P24">
+        <v>1.002728815835722</v>
+      </c>
+      <c r="Q24">
+        <v>1.002728815835722</v>
+      </c>
+      <c r="R24">
+        <v>1.001084912198287</v>
+      </c>
+      <c r="S24">
+        <v>1.001084912198287</v>
+      </c>
+      <c r="T24">
+        <v>1.000323720167881</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0.9989774625537183</v>
+      </c>
+      <c r="D25">
+        <v>1.004281490267081</v>
+      </c>
+      <c r="E25">
+        <v>0.9988435316915255</v>
+      </c>
+      <c r="F25">
+        <v>1.004281490267081</v>
+      </c>
+      <c r="G25">
+        <v>0.9988435316915255</v>
+      </c>
+      <c r="H25">
+        <v>0.997298734995314</v>
+      </c>
+      <c r="I25">
+        <v>1.00232382191961</v>
+      </c>
+      <c r="J25">
+        <v>0.9989384104547494</v>
+      </c>
+      <c r="K25">
+        <v>0.9988435316915255</v>
+      </c>
+      <c r="L25">
+        <v>0.9989774625537183</v>
+      </c>
+      <c r="M25">
+        <v>1.0016294764104</v>
+      </c>
+      <c r="N25">
+        <v>1.0016294764104</v>
+      </c>
+      <c r="O25">
+        <v>1.00186092491347</v>
+      </c>
+      <c r="P25">
+        <v>1.000700828170775</v>
+      </c>
+      <c r="Q25">
+        <v>1.000700828170775</v>
+      </c>
+      <c r="R25">
+        <v>1.000236504050963</v>
+      </c>
+      <c r="S25">
+        <v>1.000236504050963</v>
+      </c>
+      <c r="T25">
+        <v>1.000110575313666</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.9958438400036426</v>
+      </c>
+      <c r="D26">
+        <v>1.016200288245715</v>
+      </c>
+      <c r="E26">
+        <v>0.9961408743141079</v>
+      </c>
+      <c r="F26">
+        <v>1.016200288245715</v>
+      </c>
+      <c r="G26">
+        <v>0.9961408743141079</v>
+      </c>
+      <c r="H26">
+        <v>0.9888603357359418</v>
+      </c>
+      <c r="I26">
+        <v>1.008978914217928</v>
+      </c>
+      <c r="J26">
+        <v>0.9959304399661839</v>
+      </c>
+      <c r="K26">
+        <v>0.9961408743141079</v>
+      </c>
+      <c r="L26">
+        <v>0.9958438400036426</v>
+      </c>
+      <c r="M26">
+        <v>1.006022064124679</v>
+      </c>
+      <c r="N26">
+        <v>1.006022064124679</v>
+      </c>
+      <c r="O26">
+        <v>1.007007680822428</v>
+      </c>
+      <c r="P26">
+        <v>1.002728334187822</v>
+      </c>
+      <c r="Q26">
+        <v>1.002728334187822</v>
+      </c>
+      <c r="R26">
+        <v>1.001081469219393</v>
+      </c>
+      <c r="S26">
+        <v>1.001081469219393</v>
+      </c>
+      <c r="T26">
+        <v>1.000325782080586</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>0.9989758828252507</v>
+      </c>
+      <c r="D27">
+        <v>1.004277941425143</v>
+      </c>
+      <c r="E27">
+        <v>0.9988488598131477</v>
+      </c>
+      <c r="F27">
+        <v>1.004277941425143</v>
+      </c>
+      <c r="G27">
+        <v>0.9988488598131477</v>
+      </c>
+      <c r="H27">
+        <v>0.9972932088485219</v>
+      </c>
+      <c r="I27">
+        <v>1.002323478611435</v>
+      </c>
+      <c r="J27">
+        <v>0.9989388483370064</v>
+      </c>
+      <c r="K27">
+        <v>0.9988488598131477</v>
+      </c>
+      <c r="L27">
+        <v>0.9989758828252507</v>
+      </c>
+      <c r="M27">
+        <v>1.001626912125197</v>
+      </c>
+      <c r="N27">
+        <v>1.001626912125197</v>
+      </c>
+      <c r="O27">
+        <v>1.001859100953943</v>
+      </c>
+      <c r="P27">
+        <v>1.000700894687847</v>
+      </c>
+      <c r="Q27">
+        <v>1.000700894687847</v>
+      </c>
+      <c r="R27">
+        <v>1.000237885969172</v>
+      </c>
+      <c r="S27">
+        <v>1.000237885969172</v>
+      </c>
+      <c r="T27">
+        <v>1.000109703310084</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>1.009810568569297</v>
+      </c>
+      <c r="D28">
+        <v>0.9603494133932654</v>
+      </c>
+      <c r="E28">
+        <v>1.010096392119909</v>
+      </c>
+      <c r="F28">
+        <v>0.9603494133932654</v>
+      </c>
+      <c r="G28">
+        <v>1.010096392119909</v>
+      </c>
+      <c r="H28">
+        <v>1.026107067761042</v>
+      </c>
+      <c r="I28">
+        <v>0.9782583270470501</v>
+      </c>
+      <c r="J28">
+        <v>1.009893894187641</v>
+      </c>
+      <c r="K28">
+        <v>1.010096392119909</v>
+      </c>
+      <c r="L28">
+        <v>1.009810568569297</v>
+      </c>
+      <c r="M28">
+        <v>0.9850799909812813</v>
+      </c>
+      <c r="N28">
+        <v>0.9850799909812813</v>
+      </c>
+      <c r="O28">
+        <v>0.9828061030032043</v>
+      </c>
+      <c r="P28">
+        <v>0.9934187913608238</v>
+      </c>
+      <c r="Q28">
+        <v>0.9934187913608238</v>
+      </c>
+      <c r="R28">
+        <v>0.9975881915505951</v>
+      </c>
+      <c r="S28">
+        <v>0.9975881915505951</v>
+      </c>
+      <c r="T28">
+        <v>0.9990859438463674</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>1.008049010581944</v>
+      </c>
+      <c r="D29">
+        <v>0.967595100465848</v>
+      </c>
+      <c r="E29">
+        <v>1.008195213819767</v>
+      </c>
+      <c r="F29">
+        <v>0.967595100465848</v>
+      </c>
+      <c r="G29">
+        <v>1.008195213819767</v>
+      </c>
+      <c r="H29">
+        <v>1.021436177364094</v>
+      </c>
+      <c r="I29">
+        <v>0.9822111421928711</v>
+      </c>
+      <c r="J29">
+        <v>1.008091631371457</v>
+      </c>
+      <c r="K29">
+        <v>1.008195213819767</v>
+      </c>
+      <c r="L29">
+        <v>1.008049010581944</v>
+      </c>
+      <c r="M29">
+        <v>0.9878220555238959</v>
+      </c>
+      <c r="N29">
+        <v>0.9878220555238959</v>
+      </c>
+      <c r="O29">
+        <v>0.985951751080221</v>
+      </c>
+      <c r="P29">
+        <v>0.9946131082891864</v>
+      </c>
+      <c r="Q29">
+        <v>0.9946131082891864</v>
+      </c>
+      <c r="R29">
+        <v>0.9980086346718315</v>
+      </c>
+      <c r="S29">
+        <v>0.9980086346718315</v>
+      </c>
+      <c r="T29">
+        <v>0.9992630459659969</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>1.004505704496864</v>
+      </c>
+      <c r="D30">
+        <v>0.9821623760609947</v>
+      </c>
+      <c r="E30">
+        <v>1.004376068776553</v>
+      </c>
+      <c r="F30">
+        <v>0.9821623760609947</v>
+      </c>
+      <c r="G30">
+        <v>1.004376068776553</v>
+      </c>
+      <c r="H30">
+        <v>1.012039906809058</v>
+      </c>
+      <c r="I30">
+        <v>0.9901593076936404</v>
+      </c>
+      <c r="J30">
+        <v>1.004467906653415</v>
+      </c>
+      <c r="K30">
+        <v>1.004376068776553</v>
+      </c>
+      <c r="L30">
+        <v>1.004505704496864</v>
+      </c>
+      <c r="M30">
+        <v>0.9933340402789295</v>
+      </c>
+      <c r="N30">
+        <v>0.9933340402789295</v>
+      </c>
+      <c r="O30">
+        <v>0.9922757960838332</v>
+      </c>
+      <c r="P30">
+        <v>0.9970147164448041</v>
+      </c>
+      <c r="Q30">
+        <v>0.9970147164448041</v>
+      </c>
+      <c r="R30">
+        <v>0.9988550545277415</v>
+      </c>
+      <c r="S30">
+        <v>0.9988550545277415</v>
+      </c>
+      <c r="T30">
+        <v>0.9996185450817543</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>1.004928808333047</v>
+      </c>
+      <c r="D31">
+        <v>0.9805482426836194</v>
+      </c>
+      <c r="E31">
+        <v>1.004744376375495</v>
+      </c>
+      <c r="F31">
+        <v>0.9805482426836194</v>
+      </c>
+      <c r="G31">
+        <v>1.004744376375495</v>
+      </c>
+      <c r="H31">
+        <v>1.0131786160109</v>
+      </c>
+      <c r="I31">
+        <v>0.9892588552230872</v>
+      </c>
+      <c r="J31">
+        <v>1.004875033046569</v>
+      </c>
+      <c r="K31">
+        <v>1.004744376375495</v>
+      </c>
+      <c r="L31">
+        <v>1.004928808333047</v>
+      </c>
+      <c r="M31">
+        <v>0.992738525508333</v>
+      </c>
+      <c r="N31">
+        <v>0.992738525508333</v>
+      </c>
+      <c r="O31">
+        <v>0.9915786354132511</v>
+      </c>
+      <c r="P31">
+        <v>0.9967404757973869</v>
+      </c>
+      <c r="Q31">
+        <v>0.9967404757973869</v>
+      </c>
+      <c r="R31">
+        <v>0.9987414509419139</v>
+      </c>
+      <c r="S31">
+        <v>0.9987414509419139</v>
+      </c>
+      <c r="T31">
+        <v>0.9995889886121195</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>1.011585010958904</v>
+      </c>
+      <c r="D32">
+        <v>0.9530369717808216</v>
+      </c>
+      <c r="E32">
+        <v>1.012021106849315</v>
+      </c>
+      <c r="F32">
+        <v>0.9530369717808216</v>
+      </c>
+      <c r="G32">
+        <v>1.012021106849315</v>
+      </c>
+      <c r="H32">
+        <v>1.030810287671233</v>
+      </c>
+      <c r="I32">
+        <v>0.974271262191781</v>
+      </c>
+      <c r="J32">
+        <v>1.011712146575342</v>
+      </c>
+      <c r="K32">
+        <v>1.012021106849315</v>
+      </c>
+      <c r="L32">
+        <v>1.011585010958904</v>
+      </c>
+      <c r="M32">
+        <v>0.9823109913698629</v>
+      </c>
+      <c r="N32">
+        <v>0.9823109913698629</v>
+      </c>
+      <c r="O32">
+        <v>0.9796310816438356</v>
+      </c>
+      <c r="P32">
+        <v>0.9922143631963468</v>
+      </c>
+      <c r="Q32">
+        <v>0.9922143631963468</v>
+      </c>
+      <c r="R32">
+        <v>0.9971660491095887</v>
+      </c>
+      <c r="S32">
+        <v>0.9971660491095887</v>
+      </c>
+      <c r="T32">
+        <v>0.998906131004566</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>1.005380383157895</v>
+      </c>
+      <c r="D33">
+        <v>0.9790700236842105</v>
+      </c>
+      <c r="E33">
+        <v>1.004966313157895</v>
+      </c>
+      <c r="F33">
+        <v>0.9790700236842105</v>
+      </c>
+      <c r="G33">
+        <v>1.004966313157895</v>
+      </c>
+      <c r="H33">
+        <v>1.014426531578948</v>
+      </c>
+      <c r="I33">
+        <v>0.9883926857894736</v>
+      </c>
+      <c r="J33">
+        <v>1.005259655789474</v>
+      </c>
+      <c r="K33">
+        <v>1.004966313157895</v>
+      </c>
+      <c r="L33">
+        <v>1.005380383157895</v>
+      </c>
+      <c r="M33">
+        <v>0.9922252034210527</v>
+      </c>
+      <c r="N33">
+        <v>0.9922252034210527</v>
+      </c>
+      <c r="O33">
+        <v>0.9909476975438597</v>
+      </c>
+      <c r="P33">
+        <v>0.99647224</v>
+      </c>
+      <c r="Q33">
+        <v>0.99647224</v>
+      </c>
+      <c r="R33">
+        <v>0.9985957582894736</v>
+      </c>
+      <c r="S33">
+        <v>0.9985957582894736</v>
+      </c>
+      <c r="T33">
+        <v>0.9995825988596492</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>1.005253425789474</v>
+      </c>
+      <c r="D34">
+        <v>0.9788244557894739</v>
+      </c>
+      <c r="E34">
+        <v>1.005366695789474</v>
+      </c>
+      <c r="F34">
+        <v>0.9788244557894739</v>
+      </c>
+      <c r="G34">
+        <v>1.005366695789474</v>
+      </c>
+      <c r="H34">
+        <v>1.013987572631579</v>
+      </c>
+      <c r="I34">
+        <v>0.9883796684210526</v>
+      </c>
+      <c r="J34">
+        <v>1.005286449473684</v>
+      </c>
+      <c r="K34">
+        <v>1.005366695789474</v>
+      </c>
+      <c r="L34">
+        <v>1.005253425789474</v>
+      </c>
+      <c r="M34">
+        <v>0.9920389407894739</v>
+      </c>
+      <c r="N34">
+        <v>0.9920389407894739</v>
+      </c>
+      <c r="O34">
+        <v>0.9908191833333335</v>
+      </c>
+      <c r="P34">
+        <v>0.9964815257894738</v>
+      </c>
+      <c r="Q34">
+        <v>0.9964815257894738</v>
+      </c>
+      <c r="R34">
+        <v>0.9987028182894737</v>
+      </c>
+      <c r="S34">
+        <v>0.9987028182894737</v>
+      </c>
+      <c r="T34">
+        <v>0.9995163779824562</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>1.01795748322467</v>
+      </c>
+      <c r="D35">
+        <v>0.9292360227009109</v>
+      </c>
+      <c r="E35">
+        <v>1.017211305438429</v>
+      </c>
+      <c r="F35">
+        <v>0.9292360227009109</v>
+      </c>
+      <c r="G35">
+        <v>1.017211305438429</v>
+      </c>
+      <c r="H35">
+        <v>1.04802881670006</v>
+      </c>
+      <c r="I35">
+        <v>0.9609071194688295</v>
+      </c>
+      <c r="J35">
+        <v>1.017739929694159</v>
+      </c>
+      <c r="K35">
+        <v>1.017211305438429</v>
+      </c>
+      <c r="L35">
+        <v>1.01795748322467</v>
+      </c>
+      <c r="M35">
+        <v>0.9735967529627904</v>
+      </c>
+      <c r="N35">
+        <v>0.9735967529627904</v>
+      </c>
+      <c r="O35">
+        <v>0.96936687513147</v>
+      </c>
+      <c r="P35">
+        <v>0.9881349371213366</v>
+      </c>
+      <c r="Q35">
+        <v>0.9881349371213366</v>
+      </c>
+      <c r="R35">
+        <v>0.9954040292006097</v>
+      </c>
+      <c r="S35">
+        <v>0.9954040292006097</v>
+      </c>
+      <c r="T35">
+        <v>0.9985134462045098</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>1.000003218537943</v>
+      </c>
+      <c r="D36">
+        <v>0.999993827691228</v>
+      </c>
+      <c r="E36">
+        <v>0.9999985285246776</v>
+      </c>
+      <c r="F36">
+        <v>0.999993827691228</v>
+      </c>
+      <c r="G36">
+        <v>0.9999985285246776</v>
+      </c>
+      <c r="H36">
+        <v>1.000009475562039</v>
+      </c>
+      <c r="I36">
+        <v>0.9999955202073563</v>
+      </c>
+      <c r="J36">
+        <v>1.00000184976786</v>
+      </c>
+      <c r="K36">
+        <v>0.9999985285246776</v>
+      </c>
+      <c r="L36">
+        <v>1.000003218537943</v>
+      </c>
+      <c r="M36">
+        <v>0.9999985231145854</v>
+      </c>
+      <c r="N36">
+        <v>0.9999985231145854</v>
+      </c>
+      <c r="O36">
+        <v>0.999997522145509</v>
+      </c>
+      <c r="P36">
+        <v>0.9999985249179494</v>
+      </c>
+      <c r="Q36">
+        <v>0.9999985249179494</v>
+      </c>
+      <c r="R36">
+        <v>0.9999985258196314</v>
+      </c>
+      <c r="S36">
+        <v>0.9999985258196314</v>
+      </c>
+      <c r="T36">
+        <v>1.000000403381851</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>1.000043216881216</v>
+      </c>
+      <c r="D37">
+        <v>0.9998207271997852</v>
+      </c>
+      <c r="E37">
+        <v>1.000047702320549</v>
+      </c>
+      <c r="F37">
+        <v>0.9998207271997852</v>
+      </c>
+      <c r="G37">
+        <v>1.000047702320549</v>
+      </c>
+      <c r="H37">
+        <v>1.000114389615111</v>
+      </c>
+      <c r="I37">
+        <v>0.9999024384148889</v>
+      </c>
+      <c r="J37">
+        <v>1.000044522962342</v>
+      </c>
+      <c r="K37">
+        <v>1.000047702320549</v>
+      </c>
+      <c r="L37">
+        <v>1.000043216881216</v>
+      </c>
+      <c r="M37">
+        <v>0.9999319720405004</v>
+      </c>
+      <c r="N37">
+        <v>0.9999319720405004</v>
+      </c>
+      <c r="O37">
+        <v>0.99992212749863</v>
+      </c>
+      <c r="P37">
+        <v>0.9999705488005164</v>
+      </c>
+      <c r="Q37">
+        <v>0.9999705488005164</v>
+      </c>
+      <c r="R37">
+        <v>0.9999898371805245</v>
+      </c>
+      <c r="S37">
+        <v>0.9999898371805245</v>
+      </c>
+      <c r="T37">
+        <v>0.9999954995656485</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>1.000157408612547</v>
+      </c>
+      <c r="D38">
+        <v>0.9993790519342259</v>
+      </c>
+      <c r="E38">
+        <v>1.00015133401953</v>
+      </c>
+      <c r="F38">
+        <v>0.9993790519342259</v>
+      </c>
+      <c r="G38">
+        <v>1.00015133401953</v>
+      </c>
+      <c r="H38">
+        <v>1.000420902890542</v>
+      </c>
+      <c r="I38">
+        <v>0.9996570747439673</v>
+      </c>
+      <c r="J38">
+        <v>1.000155635565408</v>
+      </c>
+      <c r="K38">
+        <v>1.00015133401953</v>
+      </c>
+      <c r="L38">
+        <v>1.000157408612547</v>
+      </c>
+      <c r="M38">
+        <v>0.9997682302733866</v>
+      </c>
+      <c r="N38">
+        <v>0.9997682302733866</v>
+      </c>
+      <c r="O38">
+        <v>0.9997311784302468</v>
+      </c>
+      <c r="P38">
+        <v>0.9998959315221011</v>
+      </c>
+      <c r="Q38">
+        <v>0.9998959315221011</v>
+      </c>
+      <c r="R38">
+        <v>0.9999597821464583</v>
+      </c>
+      <c r="S38">
+        <v>0.9999597821464583</v>
+      </c>
+      <c r="T38">
+        <v>0.9999869012943702</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
         <v>1.000371389133334</v>
       </c>
-      <c r="D23">
+      <c r="D39">
         <v>0.9985504374020946</v>
       </c>
-      <c r="E23">
+      <c r="E39">
         <v>1.000346199030462</v>
       </c>
-      <c r="F23">
+      <c r="F39">
         <v>0.9985504374020946</v>
       </c>
-      <c r="G23">
+      <c r="G39">
         <v>1.000346199030462</v>
       </c>
-      <c r="H23">
+      <c r="H39">
         <v>1.000995165207772</v>
       </c>
-      <c r="I23">
+      <c r="I39">
         <v>0.9991969145579661</v>
       </c>
-      <c r="J23">
+      <c r="J39">
         <v>1.000364043270616</v>
       </c>
-      <c r="K23">
+      <c r="K39">
         <v>1.000346199030462</v>
       </c>
-      <c r="L23">
+      <c r="L39">
         <v>1.000371389133334</v>
       </c>
-      <c r="M23">
+      <c r="M39">
         <v>0.9994609132677141</v>
       </c>
-      <c r="N23">
+      <c r="N39">
         <v>0.9994609132677141</v>
       </c>
-      <c r="O23">
+      <c r="O39">
         <v>0.9993729136977981</v>
       </c>
-      <c r="P23">
+      <c r="P39">
         <v>0.9997560085219632</v>
       </c>
-      <c r="Q23">
+      <c r="Q39">
         <v>0.9997560085219632</v>
       </c>
-      <c r="R23">
+      <c r="R39">
         <v>0.9999035561490879</v>
       </c>
-      <c r="S23">
+      <c r="S39">
         <v>0.9999035561490879</v>
       </c>
-      <c r="T23">
+      <c r="T39">
         <v>0.9999706914337073</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>1.001675516247046</v>
+      </c>
+      <c r="D40">
+        <v>0.9933616333752335</v>
+      </c>
+      <c r="E40">
+        <v>1.001630933102651</v>
+      </c>
+      <c r="F40">
+        <v>0.9933616333752335</v>
+      </c>
+      <c r="G40">
+        <v>1.001630933102651</v>
+      </c>
+      <c r="H40">
+        <v>1.004476523350253</v>
+      </c>
+      <c r="I40">
+        <v>0.9963385819820452</v>
+      </c>
+      <c r="J40">
+        <v>1.001662516204646</v>
+      </c>
+      <c r="K40">
+        <v>1.001630933102651</v>
+      </c>
+      <c r="L40">
+        <v>1.001675516247046</v>
+      </c>
+      <c r="M40">
+        <v>0.9975185748111399</v>
+      </c>
+      <c r="N40">
+        <v>0.9975185748111399</v>
+      </c>
+      <c r="O40">
+        <v>0.9971252438681084</v>
+      </c>
+      <c r="P40">
+        <v>0.9988893609083104</v>
+      </c>
+      <c r="Q40">
+        <v>0.9988893609083104</v>
+      </c>
+      <c r="R40">
+        <v>0.9995747539568955</v>
+      </c>
+      <c r="S40">
+        <v>0.9995747539568955</v>
+      </c>
+      <c r="T40">
+        <v>0.9998576173769792</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>0.9990142826156488</v>
+      </c>
+      <c r="D41">
+        <v>1.003891205610892</v>
+      </c>
+      <c r="E41">
+        <v>0.999050447310028</v>
+      </c>
+      <c r="F41">
+        <v>1.003891205610892</v>
+      </c>
+      <c r="G41">
+        <v>0.999050447310028</v>
+      </c>
+      <c r="H41">
+        <v>0.9973645369595553</v>
+      </c>
+      <c r="I41">
+        <v>1.002148531142781</v>
+      </c>
+      <c r="J41">
+        <v>0.9990248263067752</v>
+      </c>
+      <c r="K41">
+        <v>0.999050447310028</v>
+      </c>
+      <c r="L41">
+        <v>0.9990142826156488</v>
+      </c>
+      <c r="M41">
+        <v>1.001452744113271</v>
+      </c>
+      <c r="N41">
+        <v>1.001452744113271</v>
+      </c>
+      <c r="O41">
+        <v>1.001684673123107</v>
+      </c>
+      <c r="P41">
+        <v>1.00065197851219</v>
+      </c>
+      <c r="Q41">
+        <v>1.00065197851219</v>
+      </c>
+      <c r="R41">
+        <v>1.000251595711649</v>
+      </c>
+      <c r="S41">
+        <v>1.000251595711649</v>
+      </c>
+      <c r="T41">
+        <v>1.000082304990947</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>1.0064459438836</v>
+      </c>
+      <c r="D42">
+        <v>0.9740427848797407</v>
+      </c>
+      <c r="E42">
+        <v>1.006567351913207</v>
+      </c>
+      <c r="F42">
+        <v>0.9740427848797407</v>
+      </c>
+      <c r="G42">
+        <v>1.006567351913207</v>
+      </c>
+      <c r="H42">
+        <v>1.017166063004633</v>
+      </c>
+      <c r="I42">
+        <v>0.9857516263407253</v>
+      </c>
+      <c r="J42">
+        <v>1.006481341801074</v>
+      </c>
+      <c r="K42">
+        <v>1.006567351913207</v>
+      </c>
+      <c r="L42">
+        <v>1.0064459438836</v>
+      </c>
+      <c r="M42">
+        <v>0.9902443643816703</v>
+      </c>
+      <c r="N42">
+        <v>0.9902443643816703</v>
+      </c>
+      <c r="O42">
+        <v>0.9887467850346887</v>
+      </c>
+      <c r="P42">
+        <v>0.995685360225516</v>
+      </c>
+      <c r="Q42">
+        <v>0.995685360225516</v>
+      </c>
+      <c r="R42">
+        <v>0.9984058581474389</v>
+      </c>
+      <c r="S42">
+        <v>0.9984058581474389</v>
+      </c>
+      <c r="T42">
+        <v>0.99940918530383</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/Gamma1F-HW40.xlsx
+++ b/JupyterNotebooks/AvgHW/Gamma1F-HW40.xlsx
@@ -14,36 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>HKL</t>
   </si>
   <si>
-    <t>BT8Hex_2.5</t>
-  </si>
-  <si>
-    <t>BT8Hex_5</t>
-  </si>
-  <si>
-    <t>BT8Hex_10</t>
-  </si>
-  <si>
-    <t>BT8Hex_15</t>
-  </si>
-  <si>
-    <t>Spiral2.5</t>
-  </si>
-  <si>
     <t>Spiral5</t>
   </si>
   <si>
-    <t>Spiral7.5</t>
-  </si>
-  <si>
-    <t>Spiral10</t>
-  </si>
-  <si>
-    <t>Spiral15</t>
+    <t>RotRing OmegaMax-90</t>
+  </si>
+  <si>
+    <t>Equal Angle</t>
+  </si>
+  <si>
+    <t>Tilt Rotate</t>
+  </si>
+  <si>
+    <t>CLR</t>
+  </si>
+  <si>
+    <t>Rizzie Hex</t>
+  </si>
+  <si>
+    <t>Thomas Hex</t>
+  </si>
+  <si>
+    <t>Tilt Rotate_Partial</t>
+  </si>
+  <si>
+    <t>RotRing OmegaMax-60</t>
+  </si>
+  <si>
+    <t>Equal Angle_Partial</t>
+  </si>
+  <si>
+    <t>Rizzie Hex_Partial</t>
+  </si>
+  <si>
+    <t>ND Single</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
+    <t>Morris Single</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>OffsetFTD</t>
+  </si>
+  <si>
+    <t>OffsetATD</t>
   </si>
   <si>
     <t>OffsetF45</t>
@@ -52,36 +85,36 @@
     <t>OffsetA45</t>
   </si>
   <si>
-    <t>OffsetFTD</t>
-  </si>
-  <si>
-    <t>OffsetATD</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt2.5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt10degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt15degRes</t>
+    <t>OffsetFRD</t>
+  </si>
+  <si>
+    <t>OffsetARD</t>
+  </si>
+  <si>
+    <t>Gaussian Quadrature</t>
+  </si>
+  <si>
+    <t>Michael-CCHex</t>
+  </si>
+  <si>
+    <t>Michael-SNHex</t>
+  </si>
+  <si>
+    <t>[2, 1, 1]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
+    <t>[2, 0, 0]</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
   </si>
   <si>
-    <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
     <t>[2, 2, 2]</t>
   </si>
   <si>
@@ -89,9 +122,6 @@
   </si>
   <si>
     <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,13 +509,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD19"/>
+  <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,38 +573,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -582,91 +582,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -674,61 +644,61 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.00051930039003</v>
+        <v>1.00009268553505</v>
       </c>
       <c r="D3">
-        <v>0.9979661321331535</v>
+        <v>0.999633112635789</v>
       </c>
       <c r="E3">
-        <v>1.000502449319027</v>
+        <v>1.000089988485535</v>
       </c>
       <c r="F3">
-        <v>1.00051930039003</v>
+        <v>0.999633112635789</v>
       </c>
       <c r="G3">
-        <v>1.001336654813797</v>
+        <v>1.000089988485535</v>
       </c>
       <c r="H3">
-        <v>0.9988852731160018</v>
+        <v>1.000247675356345</v>
       </c>
       <c r="I3">
-        <v>1.000507360406138</v>
+        <v>0.9997975880161808</v>
       </c>
       <c r="J3">
-        <v>0.9979661321331535</v>
+        <v>1.000091897809959</v>
       </c>
       <c r="K3">
-        <v>1.00051930039003</v>
+        <v>1.000089988485535</v>
       </c>
       <c r="L3">
-        <v>1.000502449319027</v>
+        <v>1.00009268553505</v>
       </c>
       <c r="M3">
-        <v>0.9992342907260903</v>
+        <v>0.9998628990854195</v>
       </c>
       <c r="N3">
-        <v>0.9992342907260903</v>
+        <v>0.9998628990854195</v>
       </c>
       <c r="O3">
-        <v>0.9991179515227274</v>
+        <v>0.9998411287290065</v>
       </c>
       <c r="P3">
-        <v>0.9996626272807368</v>
+        <v>0.9999385955521248</v>
       </c>
       <c r="Q3">
-        <v>0.9996626272807366</v>
+        <v>0.9999385955521248</v>
       </c>
       <c r="R3">
-        <v>0.9998767955580599</v>
+        <v>0.9999764437854775</v>
       </c>
       <c r="S3">
-        <v>0.9998767955580599</v>
+        <v>0.9999764437854775</v>
       </c>
       <c r="T3">
-        <v>0.9999528616963579</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30">
+        <v>0.9999921579731432</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -736,61 +706,61 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.00100283813276</v>
+        <v>1.001675516247046</v>
       </c>
       <c r="D4">
-        <v>0.9960734348970961</v>
+        <v>0.9933616333752335</v>
       </c>
       <c r="E4">
-        <v>1.000969866443967</v>
+        <v>1.001630933102651</v>
       </c>
       <c r="F4">
-        <v>1.00100283813276</v>
+        <v>0.9933616333752335</v>
       </c>
       <c r="G4">
-        <v>1.002580028711294</v>
+        <v>1.001630933102651</v>
       </c>
       <c r="H4">
-        <v>0.9978480202935387</v>
+        <v>1.004476523350253</v>
       </c>
       <c r="I4">
-        <v>1.000979476287905</v>
+        <v>0.9963385819820452</v>
       </c>
       <c r="J4">
-        <v>0.9960734348970961</v>
+        <v>1.001662516204646</v>
       </c>
       <c r="K4">
-        <v>1.00100283813276</v>
+        <v>1.001630933102651</v>
       </c>
       <c r="L4">
-        <v>1.000969866443967</v>
+        <v>1.001675516247046</v>
       </c>
       <c r="M4">
-        <v>0.9985216506705318</v>
+        <v>0.9975185748111399</v>
       </c>
       <c r="N4">
-        <v>0.9985216506705318</v>
+        <v>0.9975185748111399</v>
       </c>
       <c r="O4">
-        <v>0.9982971072115342</v>
+        <v>0.9971252438681084</v>
       </c>
       <c r="P4">
-        <v>0.9993487131579412</v>
+        <v>0.9988893609083104</v>
       </c>
       <c r="Q4">
-        <v>0.9993487131579412</v>
+        <v>0.9988893609083104</v>
       </c>
       <c r="R4">
-        <v>0.9997622444016458</v>
+        <v>0.9995747539568955</v>
       </c>
       <c r="S4">
-        <v>0.9997622444016458</v>
+        <v>0.9995747539568955</v>
       </c>
       <c r="T4">
-        <v>0.9999089441277603</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30">
+        <v>0.9998576173769792</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -798,61 +768,61 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.00191875199464</v>
+        <v>1.005335035381843</v>
       </c>
       <c r="D5">
-        <v>0.9924771057688316</v>
+        <v>0.978870786959653</v>
       </c>
       <c r="E5">
-        <v>1.001859599711938</v>
+        <v>1.005187384639769</v>
       </c>
       <c r="F5">
-        <v>1.00191875199464</v>
+        <v>0.978870786959653</v>
       </c>
       <c r="G5">
-        <v>1.004947658077869</v>
+        <v>1.005187384639769</v>
       </c>
       <c r="H5">
-        <v>0.9958761000721768</v>
+        <v>1.014254891628241</v>
       </c>
       <c r="I5">
-        <v>1.001876838826113</v>
+        <v>0.9883447621181513</v>
       </c>
       <c r="J5">
-        <v>0.9924771057688316</v>
+        <v>1.005291985749278</v>
       </c>
       <c r="K5">
-        <v>1.00191875199464</v>
+        <v>1.005187384639769</v>
       </c>
       <c r="L5">
-        <v>1.001859599711938</v>
+        <v>1.005335035381843</v>
       </c>
       <c r="M5">
-        <v>0.9971683527403847</v>
+        <v>0.992102911170748</v>
       </c>
       <c r="N5">
-        <v>0.9971683527403847</v>
+        <v>0.992102911170748</v>
       </c>
       <c r="O5">
-        <v>0.996737601850982</v>
+        <v>0.9908501948198825</v>
       </c>
       <c r="P5">
-        <v>0.9987518191584698</v>
+        <v>0.9964644023270884</v>
       </c>
       <c r="Q5">
-        <v>0.9987518191584698</v>
+        <v>0.9964644023270885</v>
       </c>
       <c r="R5">
-        <v>0.9995435523675122</v>
+        <v>0.9986451479052587</v>
       </c>
       <c r="S5">
-        <v>0.9995435523675122</v>
+        <v>0.9986451479052587</v>
       </c>
       <c r="T5">
-        <v>0.9998260090752614</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30">
+        <v>0.9995474744128227</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -860,61 +830,61 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.002812717264504</v>
+        <v>1.01795748322467</v>
       </c>
       <c r="D6">
-        <v>0.98896721946965</v>
+        <v>0.9292360227009109</v>
       </c>
       <c r="E6">
-        <v>1.002727907058603</v>
+        <v>1.017211305438429</v>
       </c>
       <c r="F6">
-        <v>1.002812717264504</v>
+        <v>0.9292360227009109</v>
       </c>
       <c r="G6">
-        <v>1.007258248192955</v>
+        <v>1.017211305438429</v>
       </c>
       <c r="H6">
-        <v>0.9939516027508507</v>
+        <v>1.04802881670006</v>
       </c>
       <c r="I6">
-        <v>1.002752625559023</v>
+        <v>0.9609071194688295</v>
       </c>
       <c r="J6">
-        <v>0.98896721946965</v>
+        <v>1.017739929694159</v>
       </c>
       <c r="K6">
-        <v>1.002812717264504</v>
+        <v>1.017211305438429</v>
       </c>
       <c r="L6">
-        <v>1.002727907058603</v>
+        <v>1.01795748322467</v>
       </c>
       <c r="M6">
-        <v>0.9958475632641264</v>
+        <v>0.9735967529627904</v>
       </c>
       <c r="N6">
-        <v>0.9958475632641264</v>
+        <v>0.9735967529627904</v>
       </c>
       <c r="O6">
-        <v>0.9952155764263678</v>
+        <v>0.96936687513147</v>
       </c>
       <c r="P6">
-        <v>0.9981692812642522</v>
+        <v>0.9881349371213366</v>
       </c>
       <c r="Q6">
-        <v>0.9981692812642522</v>
+        <v>0.9881349371213366</v>
       </c>
       <c r="R6">
-        <v>0.9993301402643151</v>
+        <v>0.9954040292006097</v>
       </c>
       <c r="S6">
-        <v>0.9993301402643151</v>
+        <v>0.9954040292006097</v>
       </c>
       <c r="T6">
-        <v>0.9997450533825974</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30">
+        <v>0.9985134462045098</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -922,61 +892,61 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.000035148843486</v>
+        <v>1.000548551368762</v>
       </c>
       <c r="D7">
-        <v>0.9998561536498887</v>
+        <v>0.9977792826605693</v>
       </c>
       <c r="E7">
-        <v>1.000036413773947</v>
+        <v>1.000567111043198</v>
       </c>
       <c r="F7">
-        <v>1.000035148843486</v>
+        <v>0.9977792826605693</v>
       </c>
       <c r="G7">
-        <v>1.000097344290016</v>
+        <v>1.000567111043198</v>
       </c>
       <c r="H7">
-        <v>0.9999205920110743</v>
+        <v>1.001459268138638</v>
       </c>
       <c r="I7">
-        <v>1.000036043454333</v>
+        <v>0.9987829010239744</v>
       </c>
       <c r="J7">
-        <v>0.9998561536498887</v>
+        <v>1.000553960769392</v>
       </c>
       <c r="K7">
-        <v>1.000035148843486</v>
+        <v>1.000567111043198</v>
       </c>
       <c r="L7">
-        <v>1.000036413773947</v>
+        <v>1.000548551368762</v>
       </c>
       <c r="M7">
-        <v>0.9999462837119177</v>
+        <v>0.9991639170146658</v>
       </c>
       <c r="N7">
-        <v>0.9999462837119177</v>
+        <v>0.9991639170146658</v>
       </c>
       <c r="O7">
-        <v>0.9999377198116366</v>
+        <v>0.9990369116844353</v>
       </c>
       <c r="P7">
-        <v>0.9999759054224405</v>
+        <v>0.9996316483575099</v>
       </c>
       <c r="Q7">
-        <v>0.9999759054224405</v>
+        <v>0.9996316483575098</v>
       </c>
       <c r="R7">
-        <v>0.999990716277702</v>
+        <v>0.999865514028932</v>
       </c>
       <c r="S7">
-        <v>0.999990716277702</v>
+        <v>0.999865514028932</v>
       </c>
       <c r="T7">
-        <v>0.999996949337124</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30">
+        <v>0.9999485125007558</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -984,61 +954,61 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.000089988485536</v>
+        <v>1.000043216881216</v>
       </c>
       <c r="D8">
-        <v>0.9996331126357892</v>
+        <v>0.9998207271997852</v>
       </c>
       <c r="E8">
-        <v>1.00009268553505</v>
+        <v>1.000047702320549</v>
       </c>
       <c r="F8">
-        <v>1.000089988485536</v>
+        <v>0.9998207271997852</v>
       </c>
       <c r="G8">
-        <v>1.000247675356345</v>
+        <v>1.000047702320549</v>
       </c>
       <c r="H8">
-        <v>0.9997975880161808</v>
+        <v>1.000114389615111</v>
       </c>
       <c r="I8">
-        <v>1.000091897809959</v>
+        <v>0.9999024384148889</v>
       </c>
       <c r="J8">
-        <v>0.9996331126357892</v>
+        <v>1.000044522962342</v>
       </c>
       <c r="K8">
-        <v>1.000089988485536</v>
+        <v>1.000047702320549</v>
       </c>
       <c r="L8">
-        <v>1.00009268553505</v>
+        <v>1.000043216881216</v>
       </c>
       <c r="M8">
-        <v>0.9998628990854195</v>
+        <v>0.9999319720405004</v>
       </c>
       <c r="N8">
-        <v>0.9998628990854195</v>
+        <v>0.9999319720405004</v>
       </c>
       <c r="O8">
-        <v>0.9998411287290065</v>
+        <v>0.99992212749863</v>
       </c>
       <c r="P8">
-        <v>0.9999385955521248</v>
+        <v>0.9999705488005164</v>
       </c>
       <c r="Q8">
-        <v>0.9999385955521248</v>
+        <v>0.9999705488005164</v>
       </c>
       <c r="R8">
-        <v>0.9999764437854777</v>
+        <v>0.9999898371805245</v>
       </c>
       <c r="S8">
-        <v>0.9999764437854777</v>
+        <v>0.9999898371805245</v>
       </c>
       <c r="T8">
-        <v>0.9999921579731432</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30">
+        <v>0.9999954995656485</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1046,61 +1016,61 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.000126928886031</v>
+        <v>1.000969866443967</v>
       </c>
       <c r="D9">
-        <v>0.9994857301994453</v>
+        <v>0.9960734348970961</v>
       </c>
       <c r="E9">
-        <v>1.0001294778133</v>
+        <v>1.00100283813276</v>
       </c>
       <c r="F9">
-        <v>1.000126928886031</v>
+        <v>0.9960734348970961</v>
       </c>
       <c r="G9">
-        <v>1.00034576067871</v>
+        <v>1.00100283813276</v>
       </c>
       <c r="H9">
-        <v>0.9997165620321992</v>
+        <v>1.002580028711294</v>
       </c>
       <c r="I9">
-        <v>1.000128732783841</v>
+        <v>0.9978480202935387</v>
       </c>
       <c r="J9">
-        <v>0.9994857301994453</v>
+        <v>1.000979476287905</v>
       </c>
       <c r="K9">
-        <v>1.000126928886031</v>
+        <v>1.00100283813276</v>
       </c>
       <c r="L9">
-        <v>1.0001294778133</v>
+        <v>1.000969866443967</v>
       </c>
       <c r="M9">
-        <v>0.9998076040063725</v>
+        <v>0.9985216506705318</v>
       </c>
       <c r="N9">
-        <v>0.9998076040063725</v>
+        <v>0.9985216506705318</v>
       </c>
       <c r="O9">
-        <v>0.999777256681648</v>
+        <v>0.9982971072115342</v>
       </c>
       <c r="P9">
-        <v>0.9999140456329254</v>
+        <v>0.9993487131579412</v>
       </c>
       <c r="Q9">
-        <v>0.9999140456329254</v>
+        <v>0.9993487131579412</v>
       </c>
       <c r="R9">
-        <v>0.9999672664462018</v>
+        <v>0.9997622444016458</v>
       </c>
       <c r="S9">
-        <v>0.9999672664462018</v>
+        <v>0.9997622444016458</v>
       </c>
       <c r="T9">
-        <v>0.9999888653989211</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30">
+        <v>0.9999089441277603</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1108,61 +1078,61 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.000272486759604</v>
+        <v>1.018227677380983</v>
       </c>
       <c r="D10">
-        <v>0.9988918489663254</v>
+        <v>0.9281884934194297</v>
       </c>
       <c r="E10">
-        <v>1.000279567051041</v>
+        <v>1.017458226018055</v>
       </c>
       <c r="F10">
-        <v>1.000272486759604</v>
+        <v>0.9281884934194297</v>
       </c>
       <c r="G10">
-        <v>1.000746860922749</v>
+        <v>1.017458226018055</v>
       </c>
       <c r="H10">
-        <v>0.9993888793534051</v>
+        <v>1.048753767759225</v>
       </c>
       <c r="I10">
-        <v>1.000277501911529</v>
+        <v>0.9603255926383097</v>
       </c>
       <c r="J10">
-        <v>0.9988918489663254</v>
+        <v>1.018003338232842</v>
       </c>
       <c r="K10">
-        <v>1.000272486759604</v>
+        <v>1.017458226018055</v>
       </c>
       <c r="L10">
-        <v>1.000279567051041</v>
+        <v>1.018227677380983</v>
       </c>
       <c r="M10">
-        <v>0.9995857080086833</v>
+        <v>0.9732080854002063</v>
       </c>
       <c r="N10">
-        <v>0.9995857080086833</v>
+        <v>0.9732080854002063</v>
       </c>
       <c r="O10">
-        <v>0.9995200984569239</v>
+        <v>0.9689139211462408</v>
       </c>
       <c r="P10">
-        <v>0.9998146342589903</v>
+        <v>0.9879581322728225</v>
       </c>
       <c r="Q10">
-        <v>0.9998146342589903</v>
+        <v>0.9879581322728225</v>
       </c>
       <c r="R10">
-        <v>0.9999290973841438</v>
+        <v>0.9953331557091307</v>
       </c>
       <c r="S10">
-        <v>0.9999290973841438</v>
+        <v>0.9953331557091307</v>
       </c>
       <c r="T10">
-        <v>0.9999761908274424</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30">
+        <v>0.9984928492414741</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1170,61 +1140,61 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.000454336686114</v>
+        <v>1.001561531637304</v>
       </c>
       <c r="D11">
-        <v>0.9981603911914795</v>
+        <v>0.9937070227050885</v>
       </c>
       <c r="E11">
-        <v>1.000462994054232</v>
+        <v>1.001594331462512</v>
       </c>
       <c r="F11">
-        <v>1.000454336686114</v>
+        <v>0.9937070227050885</v>
       </c>
       <c r="G11">
-        <v>1.001236297170131</v>
+        <v>1.001594331462512</v>
       </c>
       <c r="H11">
-        <v>0.9989862136374877</v>
+        <v>1.00415782946506</v>
       </c>
       <c r="I11">
-        <v>1.000460469810071</v>
+        <v>0.9965464531451792</v>
       </c>
       <c r="J11">
-        <v>0.9981603911914795</v>
+        <v>1.001571093895586</v>
       </c>
       <c r="K11">
-        <v>1.000454336686114</v>
+        <v>1.001594331462512</v>
       </c>
       <c r="L11">
-        <v>1.000462994054232</v>
+        <v>1.001561531637304</v>
       </c>
       <c r="M11">
-        <v>0.9993116926228556</v>
+        <v>0.9976342771711963</v>
       </c>
       <c r="N11">
-        <v>0.9993116926228556</v>
+        <v>0.9976342771711963</v>
       </c>
       <c r="O11">
-        <v>0.999203199627733</v>
+        <v>0.997271669162524</v>
       </c>
       <c r="P11">
-        <v>0.9996925739772752</v>
+        <v>0.9989542952683017</v>
       </c>
       <c r="Q11">
-        <v>0.9996925739772754</v>
+        <v>0.9989542952683017</v>
       </c>
       <c r="R11">
-        <v>0.9998830146544851</v>
+        <v>0.9996143043168544</v>
       </c>
       <c r="S11">
-        <v>0.9998830146544851</v>
+        <v>0.9996143043168544</v>
       </c>
       <c r="T11">
-        <v>0.9999601170915859</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30">
+        <v>0.9998563770517883</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1232,61 +1202,61 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9961532012859833</v>
+        <v>1.005470850199999</v>
       </c>
       <c r="D12">
-        <v>1.016193687138772</v>
+        <v>0.9784521423368419</v>
       </c>
       <c r="E12">
-        <v>0.995839559082411</v>
+        <v>1.005235968252635</v>
       </c>
       <c r="F12">
-        <v>0.9961532012859833</v>
+        <v>0.9784521423368419</v>
       </c>
       <c r="G12">
-        <v>0.9888457516192122</v>
+        <v>1.005235968252635</v>
       </c>
       <c r="H12">
-        <v>1.008979122479616</v>
+        <v>1.014633681389473</v>
       </c>
       <c r="I12">
-        <v>0.99593099940129</v>
+        <v>0.9880943211263159</v>
       </c>
       <c r="J12">
-        <v>1.016193687138772</v>
+        <v>1.005402367747368</v>
       </c>
       <c r="K12">
-        <v>0.9961532012859833</v>
+        <v>1.005235968252635</v>
       </c>
       <c r="L12">
-        <v>0.995839559082411</v>
+        <v>1.005470850199999</v>
       </c>
       <c r="M12">
-        <v>1.006016623110591</v>
+        <v>0.9919614962684202</v>
       </c>
       <c r="N12">
-        <v>1.006016623110591</v>
+        <v>0.9919614962684202</v>
       </c>
       <c r="O12">
-        <v>1.007004122900266</v>
+        <v>0.9906724378877189</v>
       </c>
       <c r="P12">
-        <v>1.002728815835722</v>
+        <v>0.9963863202631584</v>
       </c>
       <c r="Q12">
-        <v>1.002728815835722</v>
+        <v>0.9963863202631584</v>
       </c>
       <c r="R12">
-        <v>1.001084912198287</v>
+        <v>0.9985987322605274</v>
       </c>
       <c r="S12">
-        <v>1.001084912198287</v>
+        <v>0.9985987322605274</v>
       </c>
       <c r="T12">
-        <v>1.000323720167881</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30">
+        <v>0.9995482218421055</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1294,61 +1264,61 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9988435316915254</v>
+        <v>0.9964465119019261</v>
       </c>
       <c r="D13">
-        <v>1.004281490267081</v>
+        <v>1.01418459874516</v>
       </c>
       <c r="E13">
-        <v>0.9989774625537183</v>
+        <v>0.9964670626767377</v>
       </c>
       <c r="F13">
-        <v>0.9988435316915254</v>
+        <v>1.01418459874516</v>
       </c>
       <c r="G13">
-        <v>0.997298734995314</v>
+        <v>0.9964670626767377</v>
       </c>
       <c r="H13">
-        <v>1.00232382191961</v>
+        <v>0.9905201097379964</v>
       </c>
       <c r="I13">
-        <v>0.9989384104547494</v>
+        <v>1.007806288321053</v>
       </c>
       <c r="J13">
-        <v>1.004281490267081</v>
+        <v>0.9964525006873608</v>
       </c>
       <c r="K13">
-        <v>0.9988435316915254</v>
+        <v>0.9964670626767377</v>
       </c>
       <c r="L13">
-        <v>0.9989774625537183</v>
+        <v>0.9964465119019261</v>
       </c>
       <c r="M13">
-        <v>1.0016294764104</v>
+        <v>1.005315555323543</v>
       </c>
       <c r="N13">
-        <v>1.0016294764104</v>
+        <v>1.005315555323543</v>
       </c>
       <c r="O13">
-        <v>1.00186092491347</v>
+        <v>1.006145799656046</v>
       </c>
       <c r="P13">
-        <v>1.000700828170775</v>
+        <v>1.002366057774608</v>
       </c>
       <c r="Q13">
-        <v>1.000700828170775</v>
+        <v>1.002366057774608</v>
       </c>
       <c r="R13">
-        <v>1.000236504050963</v>
+        <v>1.00089130900014</v>
       </c>
       <c r="S13">
-        <v>1.000236504050963</v>
+        <v>1.00089130900014</v>
       </c>
       <c r="T13">
-        <v>1.000110575313666</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30">
+        <v>1.000312845345039</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1356,61 +1326,61 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9961408743141079</v>
+        <v>1.031499400000001</v>
       </c>
       <c r="D14">
-        <v>1.016200288245715</v>
+        <v>0.8759446600000014</v>
       </c>
       <c r="E14">
-        <v>0.9958438400036426</v>
+        <v>1.0301398</v>
       </c>
       <c r="F14">
-        <v>0.9961408743141079</v>
+        <v>0.8759446600000014</v>
       </c>
       <c r="G14">
-        <v>0.988860335735942</v>
+        <v>1.0301398</v>
       </c>
       <c r="H14">
-        <v>1.008978914217928</v>
+        <v>1.084257500000001</v>
       </c>
       <c r="I14">
-        <v>0.995930439966184</v>
+        <v>0.9314548999999992</v>
       </c>
       <c r="J14">
-        <v>1.016200288245715</v>
+        <v>1.031103000000001</v>
       </c>
       <c r="K14">
-        <v>0.9961408743141079</v>
+        <v>1.0301398</v>
       </c>
       <c r="L14">
-        <v>0.9958438400036426</v>
+        <v>1.031499400000001</v>
       </c>
       <c r="M14">
-        <v>1.006022064124679</v>
+        <v>0.9537220300000011</v>
       </c>
       <c r="N14">
-        <v>1.006022064124679</v>
+        <v>0.9537220300000011</v>
       </c>
       <c r="O14">
-        <v>1.007007680822428</v>
+        <v>0.9462996533333339</v>
       </c>
       <c r="P14">
-        <v>1.002728334187822</v>
+        <v>0.9791946200000009</v>
       </c>
       <c r="Q14">
-        <v>1.002728334187822</v>
+        <v>0.9791946200000009</v>
       </c>
       <c r="R14">
-        <v>1.001081469219393</v>
+        <v>0.9919309150000009</v>
       </c>
       <c r="S14">
-        <v>1.001081469219393</v>
+        <v>0.9919309150000009</v>
       </c>
       <c r="T14">
-        <v>1.000325782080586</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30">
+        <v>0.9973998766666675</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1418,61 +1388,61 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9988488598131477</v>
+        <v>1.0113912</v>
       </c>
       <c r="D15">
-        <v>1.004277941425143</v>
+        <v>0.9526597999999999</v>
       </c>
       <c r="E15">
-        <v>0.9989758828252507</v>
+        <v>1.012634</v>
       </c>
       <c r="F15">
-        <v>0.9988488598131477</v>
+        <v>0.9526597999999999</v>
       </c>
       <c r="G15">
-        <v>0.9972932088485219</v>
+        <v>1.012634</v>
       </c>
       <c r="H15">
-        <v>1.002323478611435</v>
+        <v>1.0301398</v>
       </c>
       <c r="I15">
-        <v>0.9989388483370064</v>
+        <v>0.9742505199999999</v>
       </c>
       <c r="J15">
-        <v>1.004277941425143</v>
+        <v>1.0117535</v>
       </c>
       <c r="K15">
-        <v>0.9988488598131477</v>
+        <v>1.012634</v>
       </c>
       <c r="L15">
-        <v>0.9989758828252507</v>
+        <v>1.0113912</v>
       </c>
       <c r="M15">
-        <v>1.001626912125197</v>
+        <v>0.9820255</v>
       </c>
       <c r="N15">
-        <v>1.001626912125197</v>
+        <v>0.9820255</v>
       </c>
       <c r="O15">
-        <v>1.001859100953943</v>
+        <v>0.97943384</v>
       </c>
       <c r="P15">
-        <v>1.000700894687847</v>
+        <v>0.9922283333333333</v>
       </c>
       <c r="Q15">
-        <v>1.000700894687847</v>
+        <v>0.9922283333333333</v>
       </c>
       <c r="R15">
-        <v>1.000237885969172</v>
+        <v>0.99732975</v>
       </c>
       <c r="S15">
-        <v>1.000237885969172</v>
+        <v>0.99732975</v>
       </c>
       <c r="T15">
-        <v>1.000109703310084</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30">
+        <v>0.9988048033333333</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1480,58 +1450,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9999985285246776</v>
+        <v>1.0117835</v>
       </c>
       <c r="D16">
-        <v>0.999993827691228</v>
+        <v>0.95342761</v>
       </c>
       <c r="E16">
-        <v>1.000003218537943</v>
+        <v>1.0113904</v>
       </c>
       <c r="F16">
-        <v>0.9999985285246776</v>
+        <v>0.95342761</v>
       </c>
       <c r="G16">
-        <v>1.000009475562039</v>
+        <v>1.0113904</v>
       </c>
       <c r="H16">
-        <v>0.9999955202073566</v>
+        <v>1.0314974</v>
       </c>
       <c r="I16">
-        <v>1.00000184976786</v>
+        <v>0.97429423</v>
       </c>
       <c r="J16">
-        <v>0.999993827691228</v>
+        <v>1.0116689</v>
       </c>
       <c r="K16">
-        <v>0.9999985285246776</v>
+        <v>1.0113904</v>
       </c>
       <c r="L16">
-        <v>1.000003218537943</v>
+        <v>1.0117835</v>
       </c>
       <c r="M16">
-        <v>0.9999985231145854</v>
+        <v>0.9826055549999999</v>
       </c>
       <c r="N16">
-        <v>0.9999985231145854</v>
+        <v>0.9826055549999999</v>
       </c>
       <c r="O16">
-        <v>0.9999975221455091</v>
+        <v>0.9798351133333333</v>
       </c>
       <c r="P16">
-        <v>0.9999985249179494</v>
+        <v>0.9922005033333333</v>
       </c>
       <c r="Q16">
-        <v>0.9999985249179494</v>
+        <v>0.9922005033333333</v>
       </c>
       <c r="R16">
-        <v>0.9999985258196314</v>
+        <v>0.9969979775</v>
       </c>
       <c r="S16">
-        <v>0.9999985258196314</v>
+        <v>0.9969979775</v>
       </c>
       <c r="T16">
-        <v>1.000000403381851</v>
+        <v>0.99901034</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1542,58 +1512,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.000047702320549</v>
+        <v>0.9911776299999999</v>
       </c>
       <c r="D17">
-        <v>0.9998207271997852</v>
+        <v>1.0364103</v>
       </c>
       <c r="E17">
-        <v>1.000043216881216</v>
+        <v>0.9903930400000001</v>
       </c>
       <c r="F17">
-        <v>1.000047702320549</v>
+        <v>1.0364103</v>
       </c>
       <c r="G17">
-        <v>1.000114389615111</v>
+        <v>0.9903930400000001</v>
       </c>
       <c r="H17">
-        <v>0.9999024384148888</v>
+        <v>0.97662313</v>
       </c>
       <c r="I17">
-        <v>1.000044522962342</v>
+        <v>1.0198441</v>
       </c>
       <c r="J17">
-        <v>0.9998207271997852</v>
+        <v>0.99094889</v>
       </c>
       <c r="K17">
-        <v>1.000047702320549</v>
+        <v>0.9903930400000001</v>
       </c>
       <c r="L17">
-        <v>1.000043216881216</v>
+        <v>0.9911776299999999</v>
       </c>
       <c r="M17">
-        <v>0.9999319720405004</v>
+        <v>1.013793965</v>
       </c>
       <c r="N17">
-        <v>0.9999319720405004</v>
+        <v>1.013793965</v>
       </c>
       <c r="O17">
-        <v>0.99992212749863</v>
+        <v>1.015810676666667</v>
       </c>
       <c r="P17">
-        <v>0.9999705488005164</v>
+        <v>1.005993656666667</v>
       </c>
       <c r="Q17">
-        <v>0.9999705488005164</v>
+        <v>1.005993656666667</v>
       </c>
       <c r="R17">
-        <v>0.9999898371805245</v>
+        <v>1.0020935025</v>
       </c>
       <c r="S17">
-        <v>0.9999898371805245</v>
+        <v>1.0020935025</v>
       </c>
       <c r="T17">
-        <v>0.9999954995656485</v>
+        <v>1.000899515</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1604,58 +1574,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.00015133401953</v>
+        <v>1.011585010958904</v>
       </c>
       <c r="D18">
-        <v>0.9993790519342259</v>
+        <v>0.9530369717808216</v>
       </c>
       <c r="E18">
-        <v>1.000157408612547</v>
+        <v>1.012021106849315</v>
       </c>
       <c r="F18">
-        <v>1.00015133401953</v>
+        <v>0.9530369717808216</v>
       </c>
       <c r="G18">
-        <v>1.000420902890542</v>
+        <v>1.012021106849315</v>
       </c>
       <c r="H18">
-        <v>0.9996570747439671</v>
+        <v>1.030810287671233</v>
       </c>
       <c r="I18">
-        <v>1.000155635565408</v>
+        <v>0.974271262191781</v>
       </c>
       <c r="J18">
-        <v>0.9993790519342259</v>
+        <v>1.011712146575342</v>
       </c>
       <c r="K18">
-        <v>1.00015133401953</v>
+        <v>1.012021106849315</v>
       </c>
       <c r="L18">
-        <v>1.000157408612547</v>
+        <v>1.011585010958904</v>
       </c>
       <c r="M18">
-        <v>0.9997682302733866</v>
+        <v>0.9823109913698629</v>
       </c>
       <c r="N18">
-        <v>0.9997682302733866</v>
+        <v>0.9823109913698629</v>
       </c>
       <c r="O18">
-        <v>0.9997311784302467</v>
+        <v>0.9796310816438356</v>
       </c>
       <c r="P18">
-        <v>0.9998959315221011</v>
+        <v>0.9922143631963468</v>
       </c>
       <c r="Q18">
-        <v>0.9998959315221011</v>
+        <v>0.9922143631963468</v>
       </c>
       <c r="R18">
-        <v>0.9999597821464583</v>
+        <v>0.9971660491095887</v>
       </c>
       <c r="S18">
-        <v>0.9999597821464583</v>
+        <v>0.9971660491095887</v>
       </c>
       <c r="T18">
-        <v>0.9999869012943701</v>
+        <v>0.998906131004566</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1666,58 +1636,678 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.000346199030462</v>
+        <v>1.005380383157895</v>
       </c>
       <c r="D19">
-        <v>0.9985504374020944</v>
+        <v>0.9790700236842105</v>
       </c>
       <c r="E19">
-        <v>1.000371389133334</v>
+        <v>1.004966313157895</v>
       </c>
       <c r="F19">
-        <v>1.000346199030462</v>
+        <v>0.9790700236842105</v>
       </c>
       <c r="G19">
-        <v>1.000995165207772</v>
+        <v>1.004966313157895</v>
       </c>
       <c r="H19">
-        <v>0.9991969145579661</v>
+        <v>1.014426531578948</v>
       </c>
       <c r="I19">
-        <v>1.000364043270616</v>
+        <v>0.9883926857894736</v>
       </c>
       <c r="J19">
-        <v>0.9985504374020944</v>
+        <v>1.005259655789474</v>
       </c>
       <c r="K19">
-        <v>1.000346199030462</v>
+        <v>1.004966313157895</v>
       </c>
       <c r="L19">
-        <v>1.000371389133334</v>
+        <v>1.005380383157895</v>
       </c>
       <c r="M19">
-        <v>0.999460913267714</v>
+        <v>0.9922252034210527</v>
       </c>
       <c r="N19">
-        <v>0.999460913267714</v>
+        <v>0.9922252034210527</v>
       </c>
       <c r="O19">
-        <v>0.999372913697798</v>
+        <v>0.9909476975438597</v>
       </c>
       <c r="P19">
-        <v>0.9997560085219632</v>
+        <v>0.99647224</v>
       </c>
       <c r="Q19">
-        <v>0.9997560085219632</v>
+        <v>0.99647224</v>
       </c>
       <c r="R19">
-        <v>0.9999035561490879</v>
+        <v>0.9985957582894736</v>
       </c>
       <c r="S19">
-        <v>0.9999035561490879</v>
+        <v>0.9985957582894736</v>
       </c>
       <c r="T19">
-        <v>0.9999706914337073</v>
+        <v>0.9995825988596492</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1.005253425789474</v>
+      </c>
+      <c r="D20">
+        <v>0.9788244557894739</v>
+      </c>
+      <c r="E20">
+        <v>1.005366695789474</v>
+      </c>
+      <c r="F20">
+        <v>0.9788244557894739</v>
+      </c>
+      <c r="G20">
+        <v>1.005366695789474</v>
+      </c>
+      <c r="H20">
+        <v>1.013987572631579</v>
+      </c>
+      <c r="I20">
+        <v>0.9883796684210526</v>
+      </c>
+      <c r="J20">
+        <v>1.005286449473684</v>
+      </c>
+      <c r="K20">
+        <v>1.005366695789474</v>
+      </c>
+      <c r="L20">
+        <v>1.005253425789474</v>
+      </c>
+      <c r="M20">
+        <v>0.9920389407894739</v>
+      </c>
+      <c r="N20">
+        <v>0.9920389407894739</v>
+      </c>
+      <c r="O20">
+        <v>0.9908191833333335</v>
+      </c>
+      <c r="P20">
+        <v>0.9964815257894738</v>
+      </c>
+      <c r="Q20">
+        <v>0.9964815257894738</v>
+      </c>
+      <c r="R20">
+        <v>0.9987028182894737</v>
+      </c>
+      <c r="S20">
+        <v>0.9987028182894737</v>
+      </c>
+      <c r="T20">
+        <v>0.9995163779824562</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.9958438400036426</v>
+      </c>
+      <c r="D21">
+        <v>1.016200288245715</v>
+      </c>
+      <c r="E21">
+        <v>0.9961408743141079</v>
+      </c>
+      <c r="F21">
+        <v>1.016200288245715</v>
+      </c>
+      <c r="G21">
+        <v>0.9961408743141079</v>
+      </c>
+      <c r="H21">
+        <v>0.9888603357359418</v>
+      </c>
+      <c r="I21">
+        <v>1.008978914217928</v>
+      </c>
+      <c r="J21">
+        <v>0.9959304399661839</v>
+      </c>
+      <c r="K21">
+        <v>0.9961408743141079</v>
+      </c>
+      <c r="L21">
+        <v>0.9958438400036426</v>
+      </c>
+      <c r="M21">
+        <v>1.006022064124679</v>
+      </c>
+      <c r="N21">
+        <v>1.006022064124679</v>
+      </c>
+      <c r="O21">
+        <v>1.007007680822428</v>
+      </c>
+      <c r="P21">
+        <v>1.002728334187822</v>
+      </c>
+      <c r="Q21">
+        <v>1.002728334187822</v>
+      </c>
+      <c r="R21">
+        <v>1.001081469219393</v>
+      </c>
+      <c r="S21">
+        <v>1.001081469219393</v>
+      </c>
+      <c r="T21">
+        <v>1.000325782080586</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>0.9989758828252507</v>
+      </c>
+      <c r="D22">
+        <v>1.004277941425143</v>
+      </c>
+      <c r="E22">
+        <v>0.9988488598131477</v>
+      </c>
+      <c r="F22">
+        <v>1.004277941425143</v>
+      </c>
+      <c r="G22">
+        <v>0.9988488598131477</v>
+      </c>
+      <c r="H22">
+        <v>0.9972932088485219</v>
+      </c>
+      <c r="I22">
+        <v>1.002323478611435</v>
+      </c>
+      <c r="J22">
+        <v>0.9989388483370064</v>
+      </c>
+      <c r="K22">
+        <v>0.9988488598131477</v>
+      </c>
+      <c r="L22">
+        <v>0.9989758828252507</v>
+      </c>
+      <c r="M22">
+        <v>1.001626912125197</v>
+      </c>
+      <c r="N22">
+        <v>1.001626912125197</v>
+      </c>
+      <c r="O22">
+        <v>1.001859100953943</v>
+      </c>
+      <c r="P22">
+        <v>1.000700894687847</v>
+      </c>
+      <c r="Q22">
+        <v>1.000700894687847</v>
+      </c>
+      <c r="R22">
+        <v>1.000237885969172</v>
+      </c>
+      <c r="S22">
+        <v>1.000237885969172</v>
+      </c>
+      <c r="T22">
+        <v>1.000109703310084</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>0.995839559082411</v>
+      </c>
+      <c r="D23">
+        <v>1.016193687138772</v>
+      </c>
+      <c r="E23">
+        <v>0.9961532012859831</v>
+      </c>
+      <c r="F23">
+        <v>1.016193687138772</v>
+      </c>
+      <c r="G23">
+        <v>0.9961532012859831</v>
+      </c>
+      <c r="H23">
+        <v>0.9888457516192121</v>
+      </c>
+      <c r="I23">
+        <v>1.008979122479616</v>
+      </c>
+      <c r="J23">
+        <v>0.99593099940129</v>
+      </c>
+      <c r="K23">
+        <v>0.9961532012859831</v>
+      </c>
+      <c r="L23">
+        <v>0.995839559082411</v>
+      </c>
+      <c r="M23">
+        <v>1.006016623110591</v>
+      </c>
+      <c r="N23">
+        <v>1.006016623110591</v>
+      </c>
+      <c r="O23">
+        <v>1.007004122900266</v>
+      </c>
+      <c r="P23">
+        <v>1.002728815835722</v>
+      </c>
+      <c r="Q23">
+        <v>1.002728815835722</v>
+      </c>
+      <c r="R23">
+        <v>1.001084912198287</v>
+      </c>
+      <c r="S23">
+        <v>1.001084912198287</v>
+      </c>
+      <c r="T23">
+        <v>1.000323720167881</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.9989774625537183</v>
+      </c>
+      <c r="D24">
+        <v>1.004281490267081</v>
+      </c>
+      <c r="E24">
+        <v>0.9988435316915255</v>
+      </c>
+      <c r="F24">
+        <v>1.004281490267081</v>
+      </c>
+      <c r="G24">
+        <v>0.9988435316915255</v>
+      </c>
+      <c r="H24">
+        <v>0.997298734995314</v>
+      </c>
+      <c r="I24">
+        <v>1.00232382191961</v>
+      </c>
+      <c r="J24">
+        <v>0.9989384104547494</v>
+      </c>
+      <c r="K24">
+        <v>0.9988435316915255</v>
+      </c>
+      <c r="L24">
+        <v>0.9989774625537183</v>
+      </c>
+      <c r="M24">
+        <v>1.0016294764104</v>
+      </c>
+      <c r="N24">
+        <v>1.0016294764104</v>
+      </c>
+      <c r="O24">
+        <v>1.00186092491347</v>
+      </c>
+      <c r="P24">
+        <v>1.000700828170775</v>
+      </c>
+      <c r="Q24">
+        <v>1.000700828170775</v>
+      </c>
+      <c r="R24">
+        <v>1.000236504050963</v>
+      </c>
+      <c r="S24">
+        <v>1.000236504050963</v>
+      </c>
+      <c r="T24">
+        <v>1.000110575313666</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0.9958351660497387</v>
+      </c>
+      <c r="D25">
+        <v>1.016187623395622</v>
+      </c>
+      <c r="E25">
+        <v>0.9961653896017102</v>
+      </c>
+      <c r="F25">
+        <v>1.016187623395622</v>
+      </c>
+      <c r="G25">
+        <v>0.9961653896017102</v>
+      </c>
+      <c r="H25">
+        <v>0.9888308431684053</v>
+      </c>
+      <c r="I25">
+        <v>1.00897962396532</v>
+      </c>
+      <c r="J25">
+        <v>0.9959314353796273</v>
+      </c>
+      <c r="K25">
+        <v>0.9961653896017102</v>
+      </c>
+      <c r="L25">
+        <v>0.9958351660497387</v>
+      </c>
+      <c r="M25">
+        <v>1.00601139472268</v>
+      </c>
+      <c r="N25">
+        <v>1.00601139472268</v>
+      </c>
+      <c r="O25">
+        <v>1.007000804470227</v>
+      </c>
+      <c r="P25">
+        <v>1.00272939301569</v>
+      </c>
+      <c r="Q25">
+        <v>1.00272939301569</v>
+      </c>
+      <c r="R25">
+        <v>1.001088392162195</v>
+      </c>
+      <c r="S25">
+        <v>1.001088392162195</v>
+      </c>
+      <c r="T25">
+        <v>1.000321680260071</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.9989790107622064</v>
+      </c>
+      <c r="D26">
+        <v>1.004285155495087</v>
+      </c>
+      <c r="E26">
+        <v>0.9988381723894774</v>
+      </c>
+      <c r="F26">
+        <v>1.004285155495087</v>
+      </c>
+      <c r="G26">
+        <v>0.9988381723894774</v>
+      </c>
+      <c r="H26">
+        <v>0.9973041753239912</v>
+      </c>
+      <c r="I26">
+        <v>1.002324251465643</v>
+      </c>
+      <c r="J26">
+        <v>0.9989379455639887</v>
+      </c>
+      <c r="K26">
+        <v>0.9988381723894774</v>
+      </c>
+      <c r="L26">
+        <v>0.9989790107622064</v>
+      </c>
+      <c r="M26">
+        <v>1.001632083128647</v>
+      </c>
+      <c r="N26">
+        <v>1.001632083128647</v>
+      </c>
+      <c r="O26">
+        <v>1.001862805907645</v>
+      </c>
+      <c r="P26">
+        <v>1.000700779548924</v>
+      </c>
+      <c r="Q26">
+        <v>1.000700779548924</v>
+      </c>
+      <c r="R26">
+        <v>1.000235127759062</v>
+      </c>
+      <c r="S26">
+        <v>1.000235127759062</v>
+      </c>
+      <c r="T26">
+        <v>1.000111451833399</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>1.001850438573372</v>
+      </c>
+      <c r="D27">
+        <v>0.9925538925523427</v>
+      </c>
+      <c r="E27">
+        <v>1.001881444491118</v>
+      </c>
+      <c r="F27">
+        <v>0.9925538925523427</v>
+      </c>
+      <c r="G27">
+        <v>1.001881444491118</v>
+      </c>
+      <c r="H27">
+        <v>1.004928654421058</v>
+      </c>
+      <c r="I27">
+        <v>0.9959118292922561</v>
+      </c>
+      <c r="J27">
+        <v>1.001859480741293</v>
+      </c>
+      <c r="K27">
+        <v>1.001881444491118</v>
+      </c>
+      <c r="L27">
+        <v>1.001850438573372</v>
+      </c>
+      <c r="M27">
+        <v>0.9972021655628575</v>
+      </c>
+      <c r="N27">
+        <v>0.9972021655628575</v>
+      </c>
+      <c r="O27">
+        <v>0.996772053472657</v>
+      </c>
+      <c r="P27">
+        <v>0.9987619252056111</v>
+      </c>
+      <c r="Q27">
+        <v>0.9987619252056111</v>
+      </c>
+      <c r="R27">
+        <v>0.9995418050269879</v>
+      </c>
+      <c r="S27">
+        <v>0.9995418050269879</v>
+      </c>
+      <c r="T27">
+        <v>0.9998309566785734</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>0.9996718818230452</v>
+      </c>
+      <c r="D28">
+        <v>1.001277883099606</v>
+      </c>
+      <c r="E28">
+        <v>0.9996960976484845</v>
+      </c>
+      <c r="F28">
+        <v>1.001277883099606</v>
+      </c>
+      <c r="G28">
+        <v>0.9996960976484845</v>
+      </c>
+      <c r="H28">
+        <v>0.9991203882982448</v>
+      </c>
+      <c r="I28">
+        <v>1.000708450774955</v>
+      </c>
+      <c r="J28">
+        <v>0.9996789436348006</v>
+      </c>
+      <c r="K28">
+        <v>0.9996960976484845</v>
+      </c>
+      <c r="L28">
+        <v>0.9996718818230452</v>
+      </c>
+      <c r="M28">
+        <v>1.000474882461326</v>
+      </c>
+      <c r="N28">
+        <v>1.000474882461326</v>
+      </c>
+      <c r="O28">
+        <v>1.000552738565869</v>
+      </c>
+      <c r="P28">
+        <v>1.000215287523712</v>
+      </c>
+      <c r="Q28">
+        <v>1.000215287523712</v>
+      </c>
+      <c r="R28">
+        <v>1.000085490054905</v>
+      </c>
+      <c r="S28">
+        <v>1.000085490054905</v>
+      </c>
+      <c r="T28">
+        <v>1.000025607546523</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>0.9940014118364298</v>
+      </c>
+      <c r="D29">
+        <v>1.023969687002135</v>
+      </c>
+      <c r="E29">
+        <v>0.9940186632827289</v>
+      </c>
+      <c r="F29">
+        <v>1.023969687002135</v>
+      </c>
+      <c r="G29">
+        <v>0.9940186632827289</v>
+      </c>
+      <c r="H29">
+        <v>0.9840004742592225</v>
+      </c>
+      <c r="I29">
+        <v>1.013187326708888</v>
+      </c>
+      <c r="J29">
+        <v>0.9940064485521861</v>
+      </c>
+      <c r="K29">
+        <v>0.9940186632827289</v>
+      </c>
+      <c r="L29">
+        <v>0.9940014118364298</v>
+      </c>
+      <c r="M29">
+        <v>1.008985549419282</v>
+      </c>
+      <c r="N29">
+        <v>1.008985549419282</v>
+      </c>
+      <c r="O29">
+        <v>1.010386141849151</v>
+      </c>
+      <c r="P29">
+        <v>1.003996587373764</v>
+      </c>
+      <c r="Q29">
+        <v>1.003996587373764</v>
+      </c>
+      <c r="R29">
+        <v>1.001502106351006</v>
+      </c>
+      <c r="S29">
+        <v>1.001502106351006</v>
+      </c>
+      <c r="T29">
+        <v>1.000530668606932</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/Gamma1F-HW40.xlsx
+++ b/JupyterNotebooks/AvgHW/Gamma1F-HW40.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>HKL</t>
   </si>
@@ -22,6 +22,12 @@
     <t>Spiral5</t>
   </si>
   <si>
+    <t>Holden</t>
+  </si>
+  <si>
+    <t>Rizzie Spiral</t>
+  </si>
+  <si>
     <t>RotRing OmegaMax-90</t>
   </si>
   <si>
@@ -37,7 +43,7 @@
     <t>Rizzie Hex</t>
   </si>
   <si>
-    <t>Thomas Hex</t>
+    <t>Matthies Hex</t>
   </si>
   <si>
     <t>Tilt Rotate_Partial</t>
@@ -509,7 +515,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T29"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,58 +588,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -706,58 +712,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.001675516247046</v>
+        <v>1.004478170797775</v>
       </c>
       <c r="D4">
-        <v>0.9933616333752335</v>
+        <v>0.9822845587688445</v>
       </c>
       <c r="E4">
-        <v>1.001630933102651</v>
+        <v>1.004340101297296</v>
       </c>
       <c r="F4">
-        <v>0.9933616333752335</v>
+        <v>0.9822845587688445</v>
       </c>
       <c r="G4">
-        <v>1.001630933102651</v>
+        <v>1.004340101297296</v>
       </c>
       <c r="H4">
-        <v>1.004476523350253</v>
+        <v>1.011968091050453</v>
       </c>
       <c r="I4">
-        <v>0.9963385819820452</v>
+        <v>0.9902245542203499</v>
       </c>
       <c r="J4">
-        <v>1.001662516204646</v>
+        <v>1.004437914891874</v>
       </c>
       <c r="K4">
-        <v>1.001630933102651</v>
+        <v>1.004340101297296</v>
       </c>
       <c r="L4">
-        <v>1.001675516247046</v>
+        <v>1.004478170797775</v>
       </c>
       <c r="M4">
-        <v>0.9975185748111399</v>
+        <v>0.99338136478331</v>
       </c>
       <c r="N4">
-        <v>0.9975185748111399</v>
+        <v>0.99338136478331</v>
       </c>
       <c r="O4">
-        <v>0.9971252438681084</v>
+        <v>0.9923290945956565</v>
       </c>
       <c r="P4">
-        <v>0.9988893609083104</v>
+        <v>0.9970342769546386</v>
       </c>
       <c r="Q4">
-        <v>0.9988893609083104</v>
+        <v>0.9970342769546386</v>
       </c>
       <c r="R4">
-        <v>0.9995747539568955</v>
+        <v>0.9988607330403031</v>
       </c>
       <c r="S4">
-        <v>0.9995747539568955</v>
+        <v>0.9988607330403031</v>
       </c>
       <c r="T4">
-        <v>0.9998576173769792</v>
+        <v>0.9996222318377654</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -768,58 +774,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.005335035381843</v>
+        <v>1.003015531359507</v>
       </c>
       <c r="D5">
-        <v>0.978870786959653</v>
+        <v>0.9876505711523742</v>
       </c>
       <c r="E5">
-        <v>1.005187384639769</v>
+        <v>1.003216624929884</v>
       </c>
       <c r="F5">
-        <v>0.978870786959653</v>
+        <v>0.9876505711523742</v>
       </c>
       <c r="G5">
-        <v>1.005187384639769</v>
+        <v>1.003216624929884</v>
       </c>
       <c r="H5">
-        <v>1.014254891628241</v>
+        <v>1.008003119316952</v>
       </c>
       <c r="I5">
-        <v>0.9883447621181513</v>
+        <v>0.9932543575735912</v>
       </c>
       <c r="J5">
-        <v>1.005291985749278</v>
+        <v>1.003074160411213</v>
       </c>
       <c r="K5">
-        <v>1.005187384639769</v>
+        <v>1.003216624929884</v>
       </c>
       <c r="L5">
-        <v>1.005335035381843</v>
+        <v>1.003015531359507</v>
       </c>
       <c r="M5">
-        <v>0.992102911170748</v>
+        <v>0.9953330512559407</v>
       </c>
       <c r="N5">
-        <v>0.992102911170748</v>
+        <v>0.9953330512559407</v>
       </c>
       <c r="O5">
-        <v>0.9908501948198825</v>
+        <v>0.9946401533618242</v>
       </c>
       <c r="P5">
-        <v>0.9964644023270884</v>
+        <v>0.9979609091472552</v>
       </c>
       <c r="Q5">
-        <v>0.9964644023270885</v>
+        <v>0.9979609091472552</v>
       </c>
       <c r="R5">
-        <v>0.9986451479052587</v>
+        <v>0.9992748380929125</v>
       </c>
       <c r="S5">
-        <v>0.9986451479052587</v>
+        <v>0.9992748380929125</v>
       </c>
       <c r="T5">
-        <v>0.9995474744128227</v>
+        <v>0.9997023941239203</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -830,58 +836,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.01795748322467</v>
+        <v>1.001675516247046</v>
       </c>
       <c r="D6">
-        <v>0.9292360227009109</v>
+        <v>0.9933616333752335</v>
       </c>
       <c r="E6">
-        <v>1.017211305438429</v>
+        <v>1.001630933102651</v>
       </c>
       <c r="F6">
-        <v>0.9292360227009109</v>
+        <v>0.9933616333752335</v>
       </c>
       <c r="G6">
-        <v>1.017211305438429</v>
+        <v>1.001630933102651</v>
       </c>
       <c r="H6">
-        <v>1.04802881670006</v>
+        <v>1.004476523350253</v>
       </c>
       <c r="I6">
-        <v>0.9609071194688295</v>
+        <v>0.9963385819820452</v>
       </c>
       <c r="J6">
-        <v>1.017739929694159</v>
+        <v>1.001662516204646</v>
       </c>
       <c r="K6">
-        <v>1.017211305438429</v>
+        <v>1.001630933102651</v>
       </c>
       <c r="L6">
-        <v>1.01795748322467</v>
+        <v>1.001675516247046</v>
       </c>
       <c r="M6">
-        <v>0.9735967529627904</v>
+        <v>0.9975185748111399</v>
       </c>
       <c r="N6">
-        <v>0.9735967529627904</v>
+        <v>0.9975185748111399</v>
       </c>
       <c r="O6">
-        <v>0.96936687513147</v>
+        <v>0.9971252438681084</v>
       </c>
       <c r="P6">
-        <v>0.9881349371213366</v>
+        <v>0.9988893609083104</v>
       </c>
       <c r="Q6">
-        <v>0.9881349371213366</v>
+        <v>0.9988893609083104</v>
       </c>
       <c r="R6">
-        <v>0.9954040292006097</v>
+        <v>0.9995747539568955</v>
       </c>
       <c r="S6">
-        <v>0.9954040292006097</v>
+        <v>0.9995747539568955</v>
       </c>
       <c r="T6">
-        <v>0.9985134462045098</v>
+        <v>0.9998576173769792</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -892,58 +898,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.000548551368762</v>
+        <v>1.005335035381843</v>
       </c>
       <c r="D7">
-        <v>0.9977792826605693</v>
+        <v>0.978870786959653</v>
       </c>
       <c r="E7">
-        <v>1.000567111043198</v>
+        <v>1.005187384639769</v>
       </c>
       <c r="F7">
-        <v>0.9977792826605693</v>
+        <v>0.978870786959653</v>
       </c>
       <c r="G7">
-        <v>1.000567111043198</v>
+        <v>1.005187384639769</v>
       </c>
       <c r="H7">
-        <v>1.001459268138638</v>
+        <v>1.014254891628241</v>
       </c>
       <c r="I7">
-        <v>0.9987829010239744</v>
+        <v>0.9883447621181513</v>
       </c>
       <c r="J7">
-        <v>1.000553960769392</v>
+        <v>1.005291985749278</v>
       </c>
       <c r="K7">
-        <v>1.000567111043198</v>
+        <v>1.005187384639769</v>
       </c>
       <c r="L7">
-        <v>1.000548551368762</v>
+        <v>1.005335035381843</v>
       </c>
       <c r="M7">
-        <v>0.9991639170146658</v>
+        <v>0.992102911170748</v>
       </c>
       <c r="N7">
-        <v>0.9991639170146658</v>
+        <v>0.992102911170748</v>
       </c>
       <c r="O7">
-        <v>0.9990369116844353</v>
+        <v>0.9908501948198825</v>
       </c>
       <c r="P7">
-        <v>0.9996316483575099</v>
+        <v>0.9964644023270884</v>
       </c>
       <c r="Q7">
-        <v>0.9996316483575098</v>
+        <v>0.9964644023270885</v>
       </c>
       <c r="R7">
-        <v>0.999865514028932</v>
+        <v>0.9986451479052587</v>
       </c>
       <c r="S7">
-        <v>0.999865514028932</v>
+        <v>0.9986451479052587</v>
       </c>
       <c r="T7">
-        <v>0.9999485125007558</v>
+        <v>0.9995474744128227</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -954,58 +960,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.000043216881216</v>
+        <v>1.01795748322467</v>
       </c>
       <c r="D8">
-        <v>0.9998207271997852</v>
+        <v>0.9292360227009109</v>
       </c>
       <c r="E8">
-        <v>1.000047702320549</v>
+        <v>1.017211305438429</v>
       </c>
       <c r="F8">
-        <v>0.9998207271997852</v>
+        <v>0.9292360227009109</v>
       </c>
       <c r="G8">
-        <v>1.000047702320549</v>
+        <v>1.017211305438429</v>
       </c>
       <c r="H8">
-        <v>1.000114389615111</v>
+        <v>1.04802881670006</v>
       </c>
       <c r="I8">
-        <v>0.9999024384148889</v>
+        <v>0.9609071194688295</v>
       </c>
       <c r="J8">
-        <v>1.000044522962342</v>
+        <v>1.017739929694159</v>
       </c>
       <c r="K8">
-        <v>1.000047702320549</v>
+        <v>1.017211305438429</v>
       </c>
       <c r="L8">
-        <v>1.000043216881216</v>
+        <v>1.01795748322467</v>
       </c>
       <c r="M8">
-        <v>0.9999319720405004</v>
+        <v>0.9735967529627904</v>
       </c>
       <c r="N8">
-        <v>0.9999319720405004</v>
+        <v>0.9735967529627904</v>
       </c>
       <c r="O8">
-        <v>0.99992212749863</v>
+        <v>0.96936687513147</v>
       </c>
       <c r="P8">
-        <v>0.9999705488005164</v>
+        <v>0.9881349371213366</v>
       </c>
       <c r="Q8">
-        <v>0.9999705488005164</v>
+        <v>0.9881349371213366</v>
       </c>
       <c r="R8">
-        <v>0.9999898371805245</v>
+        <v>0.9954040292006097</v>
       </c>
       <c r="S8">
-        <v>0.9999898371805245</v>
+        <v>0.9954040292006097</v>
       </c>
       <c r="T8">
-        <v>0.9999954995656485</v>
+        <v>0.9985134462045098</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1016,58 +1022,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.000969866443967</v>
+        <v>1.000548551368762</v>
       </c>
       <c r="D9">
-        <v>0.9960734348970961</v>
+        <v>0.9977792826605693</v>
       </c>
       <c r="E9">
-        <v>1.00100283813276</v>
+        <v>1.000567111043198</v>
       </c>
       <c r="F9">
-        <v>0.9960734348970961</v>
+        <v>0.9977792826605693</v>
       </c>
       <c r="G9">
-        <v>1.00100283813276</v>
+        <v>1.000567111043198</v>
       </c>
       <c r="H9">
-        <v>1.002580028711294</v>
+        <v>1.001459268138638</v>
       </c>
       <c r="I9">
-        <v>0.9978480202935387</v>
+        <v>0.9987829010239744</v>
       </c>
       <c r="J9">
-        <v>1.000979476287905</v>
+        <v>1.000553960769392</v>
       </c>
       <c r="K9">
-        <v>1.00100283813276</v>
+        <v>1.000567111043198</v>
       </c>
       <c r="L9">
-        <v>1.000969866443967</v>
+        <v>1.000548551368762</v>
       </c>
       <c r="M9">
-        <v>0.9985216506705318</v>
+        <v>0.9991639170146658</v>
       </c>
       <c r="N9">
-        <v>0.9985216506705318</v>
+        <v>0.9991639170146658</v>
       </c>
       <c r="O9">
-        <v>0.9982971072115342</v>
+        <v>0.9990369116844353</v>
       </c>
       <c r="P9">
-        <v>0.9993487131579412</v>
+        <v>0.9996316483575099</v>
       </c>
       <c r="Q9">
-        <v>0.9993487131579412</v>
+        <v>0.9996316483575098</v>
       </c>
       <c r="R9">
-        <v>0.9997622444016458</v>
+        <v>0.999865514028932</v>
       </c>
       <c r="S9">
-        <v>0.9997622444016458</v>
+        <v>0.999865514028932</v>
       </c>
       <c r="T9">
-        <v>0.9999089441277603</v>
+        <v>0.9999485125007558</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1078,58 +1084,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.018227677380983</v>
+        <v>1.000043216881216</v>
       </c>
       <c r="D10">
-        <v>0.9281884934194297</v>
+        <v>0.9998207271997852</v>
       </c>
       <c r="E10">
-        <v>1.017458226018055</v>
+        <v>1.000047702320549</v>
       </c>
       <c r="F10">
-        <v>0.9281884934194297</v>
+        <v>0.9998207271997852</v>
       </c>
       <c r="G10">
-        <v>1.017458226018055</v>
+        <v>1.000047702320549</v>
       </c>
       <c r="H10">
-        <v>1.048753767759225</v>
+        <v>1.000114389615111</v>
       </c>
       <c r="I10">
-        <v>0.9603255926383097</v>
+        <v>0.9999024384148889</v>
       </c>
       <c r="J10">
-        <v>1.018003338232842</v>
+        <v>1.000044522962342</v>
       </c>
       <c r="K10">
-        <v>1.017458226018055</v>
+        <v>1.000047702320549</v>
       </c>
       <c r="L10">
-        <v>1.018227677380983</v>
+        <v>1.000043216881216</v>
       </c>
       <c r="M10">
-        <v>0.9732080854002063</v>
+        <v>0.9999319720405004</v>
       </c>
       <c r="N10">
-        <v>0.9732080854002063</v>
+        <v>0.9999319720405004</v>
       </c>
       <c r="O10">
-        <v>0.9689139211462408</v>
+        <v>0.99992212749863</v>
       </c>
       <c r="P10">
-        <v>0.9879581322728225</v>
+        <v>0.9999705488005164</v>
       </c>
       <c r="Q10">
-        <v>0.9879581322728225</v>
+        <v>0.9999705488005164</v>
       </c>
       <c r="R10">
-        <v>0.9953331557091307</v>
+        <v>0.9999898371805245</v>
       </c>
       <c r="S10">
-        <v>0.9953331557091307</v>
+        <v>0.9999898371805245</v>
       </c>
       <c r="T10">
-        <v>0.9984928492414741</v>
+        <v>0.9999954995656485</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1140,58 +1146,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.001561531637304</v>
+        <v>1.000969866443967</v>
       </c>
       <c r="D11">
-        <v>0.9937070227050885</v>
+        <v>0.9960734348970961</v>
       </c>
       <c r="E11">
-        <v>1.001594331462512</v>
+        <v>1.00100283813276</v>
       </c>
       <c r="F11">
-        <v>0.9937070227050885</v>
+        <v>0.9960734348970961</v>
       </c>
       <c r="G11">
-        <v>1.001594331462512</v>
+        <v>1.00100283813276</v>
       </c>
       <c r="H11">
-        <v>1.00415782946506</v>
+        <v>1.002580028711294</v>
       </c>
       <c r="I11">
-        <v>0.9965464531451792</v>
+        <v>0.9978480202935387</v>
       </c>
       <c r="J11">
-        <v>1.001571093895586</v>
+        <v>1.000979476287905</v>
       </c>
       <c r="K11">
-        <v>1.001594331462512</v>
+        <v>1.00100283813276</v>
       </c>
       <c r="L11">
-        <v>1.001561531637304</v>
+        <v>1.000969866443967</v>
       </c>
       <c r="M11">
-        <v>0.9976342771711963</v>
+        <v>0.9985216506705318</v>
       </c>
       <c r="N11">
-        <v>0.9976342771711963</v>
+        <v>0.9985216506705318</v>
       </c>
       <c r="O11">
-        <v>0.997271669162524</v>
+        <v>0.9982971072115342</v>
       </c>
       <c r="P11">
-        <v>0.9989542952683017</v>
+        <v>0.9993487131579412</v>
       </c>
       <c r="Q11">
-        <v>0.9989542952683017</v>
+        <v>0.9993487131579412</v>
       </c>
       <c r="R11">
-        <v>0.9996143043168544</v>
+        <v>0.9997622444016458</v>
       </c>
       <c r="S11">
-        <v>0.9996143043168544</v>
+        <v>0.9997622444016458</v>
       </c>
       <c r="T11">
-        <v>0.9998563770517883</v>
+        <v>0.9999089441277603</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1202,58 +1208,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.005470850199999</v>
+        <v>1.018227677380983</v>
       </c>
       <c r="D12">
-        <v>0.9784521423368419</v>
+        <v>0.9281884934194297</v>
       </c>
       <c r="E12">
-        <v>1.005235968252635</v>
+        <v>1.017458226018055</v>
       </c>
       <c r="F12">
-        <v>0.9784521423368419</v>
+        <v>0.9281884934194297</v>
       </c>
       <c r="G12">
-        <v>1.005235968252635</v>
+        <v>1.017458226018055</v>
       </c>
       <c r="H12">
-        <v>1.014633681389473</v>
+        <v>1.048753767759225</v>
       </c>
       <c r="I12">
-        <v>0.9880943211263159</v>
+        <v>0.9603255926383097</v>
       </c>
       <c r="J12">
-        <v>1.005402367747368</v>
+        <v>1.018003338232842</v>
       </c>
       <c r="K12">
-        <v>1.005235968252635</v>
+        <v>1.017458226018055</v>
       </c>
       <c r="L12">
-        <v>1.005470850199999</v>
+        <v>1.018227677380983</v>
       </c>
       <c r="M12">
-        <v>0.9919614962684202</v>
+        <v>0.9732080854002063</v>
       </c>
       <c r="N12">
-        <v>0.9919614962684202</v>
+        <v>0.9732080854002063</v>
       </c>
       <c r="O12">
-        <v>0.9906724378877189</v>
+        <v>0.9689139211462408</v>
       </c>
       <c r="P12">
-        <v>0.9963863202631584</v>
+        <v>0.9879581322728225</v>
       </c>
       <c r="Q12">
-        <v>0.9963863202631584</v>
+        <v>0.9879581322728225</v>
       </c>
       <c r="R12">
-        <v>0.9985987322605274</v>
+        <v>0.9953331557091307</v>
       </c>
       <c r="S12">
-        <v>0.9985987322605274</v>
+        <v>0.9953331557091307</v>
       </c>
       <c r="T12">
-        <v>0.9995482218421055</v>
+        <v>0.9984928492414741</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1264,58 +1270,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9964465119019261</v>
+        <v>1.001561531637304</v>
       </c>
       <c r="D13">
-        <v>1.01418459874516</v>
+        <v>0.9937070227050885</v>
       </c>
       <c r="E13">
-        <v>0.9964670626767377</v>
+        <v>1.001594331462512</v>
       </c>
       <c r="F13">
-        <v>1.01418459874516</v>
+        <v>0.9937070227050885</v>
       </c>
       <c r="G13">
-        <v>0.9964670626767377</v>
+        <v>1.001594331462512</v>
       </c>
       <c r="H13">
-        <v>0.9905201097379964</v>
+        <v>1.00415782946506</v>
       </c>
       <c r="I13">
-        <v>1.007806288321053</v>
+        <v>0.9965464531451792</v>
       </c>
       <c r="J13">
-        <v>0.9964525006873608</v>
+        <v>1.001571093895586</v>
       </c>
       <c r="K13">
-        <v>0.9964670626767377</v>
+        <v>1.001594331462512</v>
       </c>
       <c r="L13">
-        <v>0.9964465119019261</v>
+        <v>1.001561531637304</v>
       </c>
       <c r="M13">
-        <v>1.005315555323543</v>
+        <v>0.9976342771711963</v>
       </c>
       <c r="N13">
-        <v>1.005315555323543</v>
+        <v>0.9976342771711963</v>
       </c>
       <c r="O13">
-        <v>1.006145799656046</v>
+        <v>0.997271669162524</v>
       </c>
       <c r="P13">
-        <v>1.002366057774608</v>
+        <v>0.9989542952683017</v>
       </c>
       <c r="Q13">
-        <v>1.002366057774608</v>
+        <v>0.9989542952683017</v>
       </c>
       <c r="R13">
-        <v>1.00089130900014</v>
+        <v>0.9996143043168544</v>
       </c>
       <c r="S13">
-        <v>1.00089130900014</v>
+        <v>0.9996143043168544</v>
       </c>
       <c r="T13">
-        <v>1.000312845345039</v>
+        <v>0.9998563770517883</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1326,58 +1332,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.031499400000001</v>
+        <v>1.005470850199999</v>
       </c>
       <c r="D14">
-        <v>0.8759446600000014</v>
+        <v>0.9784521423368419</v>
       </c>
       <c r="E14">
-        <v>1.0301398</v>
+        <v>1.005235968252635</v>
       </c>
       <c r="F14">
-        <v>0.8759446600000014</v>
+        <v>0.9784521423368419</v>
       </c>
       <c r="G14">
-        <v>1.0301398</v>
+        <v>1.005235968252635</v>
       </c>
       <c r="H14">
-        <v>1.084257500000001</v>
+        <v>1.014633681389473</v>
       </c>
       <c r="I14">
-        <v>0.9314548999999992</v>
+        <v>0.9880943211263159</v>
       </c>
       <c r="J14">
-        <v>1.031103000000001</v>
+        <v>1.005402367747368</v>
       </c>
       <c r="K14">
-        <v>1.0301398</v>
+        <v>1.005235968252635</v>
       </c>
       <c r="L14">
-        <v>1.031499400000001</v>
+        <v>1.005470850199999</v>
       </c>
       <c r="M14">
-        <v>0.9537220300000011</v>
+        <v>0.9919614962684202</v>
       </c>
       <c r="N14">
-        <v>0.9537220300000011</v>
+        <v>0.9919614962684202</v>
       </c>
       <c r="O14">
-        <v>0.9462996533333339</v>
+        <v>0.9906724378877189</v>
       </c>
       <c r="P14">
-        <v>0.9791946200000009</v>
+        <v>0.9963863202631584</v>
       </c>
       <c r="Q14">
-        <v>0.9791946200000009</v>
+        <v>0.9963863202631584</v>
       </c>
       <c r="R14">
-        <v>0.9919309150000009</v>
+        <v>0.9985987322605274</v>
       </c>
       <c r="S14">
-        <v>0.9919309150000009</v>
+        <v>0.9985987322605274</v>
       </c>
       <c r="T14">
-        <v>0.9973998766666675</v>
+        <v>0.9995482218421055</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1388,58 +1394,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.0113912</v>
+        <v>0.9964465119019261</v>
       </c>
       <c r="D15">
-        <v>0.9526597999999999</v>
+        <v>1.01418459874516</v>
       </c>
       <c r="E15">
-        <v>1.012634</v>
+        <v>0.9964670626767377</v>
       </c>
       <c r="F15">
-        <v>0.9526597999999999</v>
+        <v>1.01418459874516</v>
       </c>
       <c r="G15">
-        <v>1.012634</v>
+        <v>0.9964670626767377</v>
       </c>
       <c r="H15">
-        <v>1.0301398</v>
+        <v>0.9905201097379964</v>
       </c>
       <c r="I15">
-        <v>0.9742505199999999</v>
+        <v>1.007806288321053</v>
       </c>
       <c r="J15">
-        <v>1.0117535</v>
+        <v>0.9964525006873608</v>
       </c>
       <c r="K15">
-        <v>1.012634</v>
+        <v>0.9964670626767377</v>
       </c>
       <c r="L15">
-        <v>1.0113912</v>
+        <v>0.9964465119019261</v>
       </c>
       <c r="M15">
-        <v>0.9820255</v>
+        <v>1.005315555323543</v>
       </c>
       <c r="N15">
-        <v>0.9820255</v>
+        <v>1.005315555323543</v>
       </c>
       <c r="O15">
-        <v>0.97943384</v>
+        <v>1.006145799656046</v>
       </c>
       <c r="P15">
-        <v>0.9922283333333333</v>
+        <v>1.002366057774608</v>
       </c>
       <c r="Q15">
-        <v>0.9922283333333333</v>
+        <v>1.002366057774608</v>
       </c>
       <c r="R15">
-        <v>0.99732975</v>
+        <v>1.00089130900014</v>
       </c>
       <c r="S15">
-        <v>0.99732975</v>
+        <v>1.00089130900014</v>
       </c>
       <c r="T15">
-        <v>0.9988048033333333</v>
+        <v>1.000312845345039</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1450,58 +1456,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.0117835</v>
+        <v>1.031499400000001</v>
       </c>
       <c r="D16">
-        <v>0.95342761</v>
+        <v>0.8759446600000014</v>
       </c>
       <c r="E16">
-        <v>1.0113904</v>
+        <v>1.0301398</v>
       </c>
       <c r="F16">
-        <v>0.95342761</v>
+        <v>0.8759446600000014</v>
       </c>
       <c r="G16">
-        <v>1.0113904</v>
+        <v>1.0301398</v>
       </c>
       <c r="H16">
-        <v>1.0314974</v>
+        <v>1.084257500000001</v>
       </c>
       <c r="I16">
-        <v>0.97429423</v>
+        <v>0.9314548999999992</v>
       </c>
       <c r="J16">
-        <v>1.0116689</v>
+        <v>1.031103000000001</v>
       </c>
       <c r="K16">
-        <v>1.0113904</v>
+        <v>1.0301398</v>
       </c>
       <c r="L16">
-        <v>1.0117835</v>
+        <v>1.031499400000001</v>
       </c>
       <c r="M16">
-        <v>0.9826055549999999</v>
+        <v>0.9537220300000011</v>
       </c>
       <c r="N16">
-        <v>0.9826055549999999</v>
+        <v>0.9537220300000011</v>
       </c>
       <c r="O16">
-        <v>0.9798351133333333</v>
+        <v>0.9462996533333339</v>
       </c>
       <c r="P16">
-        <v>0.9922005033333333</v>
+        <v>0.9791946200000009</v>
       </c>
       <c r="Q16">
-        <v>0.9922005033333333</v>
+        <v>0.9791946200000009</v>
       </c>
       <c r="R16">
-        <v>0.9969979775</v>
+        <v>0.9919309150000009</v>
       </c>
       <c r="S16">
-        <v>0.9969979775</v>
+        <v>0.9919309150000009</v>
       </c>
       <c r="T16">
-        <v>0.99901034</v>
+        <v>0.9973998766666675</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1512,58 +1518,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9911776299999999</v>
+        <v>1.0113912</v>
       </c>
       <c r="D17">
-        <v>1.0364103</v>
+        <v>0.9526597999999999</v>
       </c>
       <c r="E17">
-        <v>0.9903930400000001</v>
+        <v>1.012634</v>
       </c>
       <c r="F17">
-        <v>1.0364103</v>
+        <v>0.9526597999999999</v>
       </c>
       <c r="G17">
-        <v>0.9903930400000001</v>
+        <v>1.012634</v>
       </c>
       <c r="H17">
-        <v>0.97662313</v>
+        <v>1.0301398</v>
       </c>
       <c r="I17">
-        <v>1.0198441</v>
+        <v>0.9742505199999999</v>
       </c>
       <c r="J17">
-        <v>0.99094889</v>
+        <v>1.0117535</v>
       </c>
       <c r="K17">
-        <v>0.9903930400000001</v>
+        <v>1.012634</v>
       </c>
       <c r="L17">
-        <v>0.9911776299999999</v>
+        <v>1.0113912</v>
       </c>
       <c r="M17">
-        <v>1.013793965</v>
+        <v>0.9820255</v>
       </c>
       <c r="N17">
-        <v>1.013793965</v>
+        <v>0.9820255</v>
       </c>
       <c r="O17">
-        <v>1.015810676666667</v>
+        <v>0.97943384</v>
       </c>
       <c r="P17">
-        <v>1.005993656666667</v>
+        <v>0.9922283333333333</v>
       </c>
       <c r="Q17">
-        <v>1.005993656666667</v>
+        <v>0.9922283333333333</v>
       </c>
       <c r="R17">
-        <v>1.0020935025</v>
+        <v>0.99732975</v>
       </c>
       <c r="S17">
-        <v>1.0020935025</v>
+        <v>0.99732975</v>
       </c>
       <c r="T17">
-        <v>1.000899515</v>
+        <v>0.9988048033333333</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1574,58 +1580,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.011585010958904</v>
+        <v>1.0117835</v>
       </c>
       <c r="D18">
-        <v>0.9530369717808216</v>
+        <v>0.95342761</v>
       </c>
       <c r="E18">
-        <v>1.012021106849315</v>
+        <v>1.0113904</v>
       </c>
       <c r="F18">
-        <v>0.9530369717808216</v>
+        <v>0.95342761</v>
       </c>
       <c r="G18">
-        <v>1.012021106849315</v>
+        <v>1.0113904</v>
       </c>
       <c r="H18">
-        <v>1.030810287671233</v>
+        <v>1.0314974</v>
       </c>
       <c r="I18">
-        <v>0.974271262191781</v>
+        <v>0.97429423</v>
       </c>
       <c r="J18">
-        <v>1.011712146575342</v>
+        <v>1.0116689</v>
       </c>
       <c r="K18">
-        <v>1.012021106849315</v>
+        <v>1.0113904</v>
       </c>
       <c r="L18">
-        <v>1.011585010958904</v>
+        <v>1.0117835</v>
       </c>
       <c r="M18">
-        <v>0.9823109913698629</v>
+        <v>0.9826055549999999</v>
       </c>
       <c r="N18">
-        <v>0.9823109913698629</v>
+        <v>0.9826055549999999</v>
       </c>
       <c r="O18">
-        <v>0.9796310816438356</v>
+        <v>0.9798351133333333</v>
       </c>
       <c r="P18">
-        <v>0.9922143631963468</v>
+        <v>0.9922005033333333</v>
       </c>
       <c r="Q18">
-        <v>0.9922143631963468</v>
+        <v>0.9922005033333333</v>
       </c>
       <c r="R18">
-        <v>0.9971660491095887</v>
+        <v>0.9969979775</v>
       </c>
       <c r="S18">
-        <v>0.9971660491095887</v>
+        <v>0.9969979775</v>
       </c>
       <c r="T18">
-        <v>0.998906131004566</v>
+        <v>0.99901034</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1636,58 +1642,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.005380383157895</v>
+        <v>0.9911776299999999</v>
       </c>
       <c r="D19">
-        <v>0.9790700236842105</v>
+        <v>1.0364103</v>
       </c>
       <c r="E19">
-        <v>1.004966313157895</v>
+        <v>0.9903930400000001</v>
       </c>
       <c r="F19">
-        <v>0.9790700236842105</v>
+        <v>1.0364103</v>
       </c>
       <c r="G19">
-        <v>1.004966313157895</v>
+        <v>0.9903930400000001</v>
       </c>
       <c r="H19">
-        <v>1.014426531578948</v>
+        <v>0.97662313</v>
       </c>
       <c r="I19">
-        <v>0.9883926857894736</v>
+        <v>1.0198441</v>
       </c>
       <c r="J19">
-        <v>1.005259655789474</v>
+        <v>0.99094889</v>
       </c>
       <c r="K19">
-        <v>1.004966313157895</v>
+        <v>0.9903930400000001</v>
       </c>
       <c r="L19">
-        <v>1.005380383157895</v>
+        <v>0.9911776299999999</v>
       </c>
       <c r="M19">
-        <v>0.9922252034210527</v>
+        <v>1.013793965</v>
       </c>
       <c r="N19">
-        <v>0.9922252034210527</v>
+        <v>1.013793965</v>
       </c>
       <c r="O19">
-        <v>0.9909476975438597</v>
+        <v>1.015810676666667</v>
       </c>
       <c r="P19">
-        <v>0.99647224</v>
+        <v>1.005993656666667</v>
       </c>
       <c r="Q19">
-        <v>0.99647224</v>
+        <v>1.005993656666667</v>
       </c>
       <c r="R19">
-        <v>0.9985957582894736</v>
+        <v>1.0020935025</v>
       </c>
       <c r="S19">
-        <v>0.9985957582894736</v>
+        <v>1.0020935025</v>
       </c>
       <c r="T19">
-        <v>0.9995825988596492</v>
+        <v>1.000899515</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1698,58 +1704,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.005253425789474</v>
+        <v>1.011585010958904</v>
       </c>
       <c r="D20">
-        <v>0.9788244557894739</v>
+        <v>0.9530369717808216</v>
       </c>
       <c r="E20">
-        <v>1.005366695789474</v>
+        <v>1.012021106849315</v>
       </c>
       <c r="F20">
-        <v>0.9788244557894739</v>
+        <v>0.9530369717808216</v>
       </c>
       <c r="G20">
-        <v>1.005366695789474</v>
+        <v>1.012021106849315</v>
       </c>
       <c r="H20">
-        <v>1.013987572631579</v>
+        <v>1.030810287671233</v>
       </c>
       <c r="I20">
-        <v>0.9883796684210526</v>
+        <v>0.974271262191781</v>
       </c>
       <c r="J20">
-        <v>1.005286449473684</v>
+        <v>1.011712146575342</v>
       </c>
       <c r="K20">
-        <v>1.005366695789474</v>
+        <v>1.012021106849315</v>
       </c>
       <c r="L20">
-        <v>1.005253425789474</v>
+        <v>1.011585010958904</v>
       </c>
       <c r="M20">
-        <v>0.9920389407894739</v>
+        <v>0.9823109913698629</v>
       </c>
       <c r="N20">
-        <v>0.9920389407894739</v>
+        <v>0.9823109913698629</v>
       </c>
       <c r="O20">
-        <v>0.9908191833333335</v>
+        <v>0.9796310816438356</v>
       </c>
       <c r="P20">
-        <v>0.9964815257894738</v>
+        <v>0.9922143631963468</v>
       </c>
       <c r="Q20">
-        <v>0.9964815257894738</v>
+        <v>0.9922143631963468</v>
       </c>
       <c r="R20">
-        <v>0.9987028182894737</v>
+        <v>0.9971660491095887</v>
       </c>
       <c r="S20">
-        <v>0.9987028182894737</v>
+        <v>0.9971660491095887</v>
       </c>
       <c r="T20">
-        <v>0.9995163779824562</v>
+        <v>0.998906131004566</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1760,58 +1766,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.9958438400036426</v>
+        <v>1.005380383157895</v>
       </c>
       <c r="D21">
-        <v>1.016200288245715</v>
+        <v>0.9790700236842105</v>
       </c>
       <c r="E21">
-        <v>0.9961408743141079</v>
+        <v>1.004966313157895</v>
       </c>
       <c r="F21">
-        <v>1.016200288245715</v>
+        <v>0.9790700236842105</v>
       </c>
       <c r="G21">
-        <v>0.9961408743141079</v>
+        <v>1.004966313157895</v>
       </c>
       <c r="H21">
-        <v>0.9888603357359418</v>
+        <v>1.014426531578948</v>
       </c>
       <c r="I21">
-        <v>1.008978914217928</v>
+        <v>0.9883926857894736</v>
       </c>
       <c r="J21">
-        <v>0.9959304399661839</v>
+        <v>1.005259655789474</v>
       </c>
       <c r="K21">
-        <v>0.9961408743141079</v>
+        <v>1.004966313157895</v>
       </c>
       <c r="L21">
-        <v>0.9958438400036426</v>
+        <v>1.005380383157895</v>
       </c>
       <c r="M21">
-        <v>1.006022064124679</v>
+        <v>0.9922252034210527</v>
       </c>
       <c r="N21">
-        <v>1.006022064124679</v>
+        <v>0.9922252034210527</v>
       </c>
       <c r="O21">
-        <v>1.007007680822428</v>
+        <v>0.9909476975438597</v>
       </c>
       <c r="P21">
-        <v>1.002728334187822</v>
+        <v>0.99647224</v>
       </c>
       <c r="Q21">
-        <v>1.002728334187822</v>
+        <v>0.99647224</v>
       </c>
       <c r="R21">
-        <v>1.001081469219393</v>
+        <v>0.9985957582894736</v>
       </c>
       <c r="S21">
-        <v>1.001081469219393</v>
+        <v>0.9985957582894736</v>
       </c>
       <c r="T21">
-        <v>1.000325782080586</v>
+        <v>0.9995825988596492</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1822,58 +1828,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.9989758828252507</v>
+        <v>1.005253425789474</v>
       </c>
       <c r="D22">
-        <v>1.004277941425143</v>
+        <v>0.9788244557894739</v>
       </c>
       <c r="E22">
-        <v>0.9988488598131477</v>
+        <v>1.005366695789474</v>
       </c>
       <c r="F22">
-        <v>1.004277941425143</v>
+        <v>0.9788244557894739</v>
       </c>
       <c r="G22">
-        <v>0.9988488598131477</v>
+        <v>1.005366695789474</v>
       </c>
       <c r="H22">
-        <v>0.9972932088485219</v>
+        <v>1.013987572631579</v>
       </c>
       <c r="I22">
-        <v>1.002323478611435</v>
+        <v>0.9883796684210526</v>
       </c>
       <c r="J22">
-        <v>0.9989388483370064</v>
+        <v>1.005286449473684</v>
       </c>
       <c r="K22">
-        <v>0.9988488598131477</v>
+        <v>1.005366695789474</v>
       </c>
       <c r="L22">
-        <v>0.9989758828252507</v>
+        <v>1.005253425789474</v>
       </c>
       <c r="M22">
-        <v>1.001626912125197</v>
+        <v>0.9920389407894739</v>
       </c>
       <c r="N22">
-        <v>1.001626912125197</v>
+        <v>0.9920389407894739</v>
       </c>
       <c r="O22">
-        <v>1.001859100953943</v>
+        <v>0.9908191833333335</v>
       </c>
       <c r="P22">
-        <v>1.000700894687847</v>
+        <v>0.9964815257894738</v>
       </c>
       <c r="Q22">
-        <v>1.000700894687847</v>
+        <v>0.9964815257894738</v>
       </c>
       <c r="R22">
-        <v>1.000237885969172</v>
+        <v>0.9987028182894737</v>
       </c>
       <c r="S22">
-        <v>1.000237885969172</v>
+        <v>0.9987028182894737</v>
       </c>
       <c r="T22">
-        <v>1.000109703310084</v>
+        <v>0.9995163779824562</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1884,58 +1890,58 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.995839559082411</v>
+        <v>0.9958438400036426</v>
       </c>
       <c r="D23">
-        <v>1.016193687138772</v>
+        <v>1.016200288245715</v>
       </c>
       <c r="E23">
-        <v>0.9961532012859831</v>
+        <v>0.9961408743141079</v>
       </c>
       <c r="F23">
-        <v>1.016193687138772</v>
+        <v>1.016200288245715</v>
       </c>
       <c r="G23">
-        <v>0.9961532012859831</v>
+        <v>0.9961408743141079</v>
       </c>
       <c r="H23">
-        <v>0.9888457516192121</v>
+        <v>0.9888603357359418</v>
       </c>
       <c r="I23">
-        <v>1.008979122479616</v>
+        <v>1.008978914217928</v>
       </c>
       <c r="J23">
-        <v>0.99593099940129</v>
+        <v>0.9959304399661839</v>
       </c>
       <c r="K23">
-        <v>0.9961532012859831</v>
+        <v>0.9961408743141079</v>
       </c>
       <c r="L23">
-        <v>0.995839559082411</v>
+        <v>0.9958438400036426</v>
       </c>
       <c r="M23">
-        <v>1.006016623110591</v>
+        <v>1.006022064124679</v>
       </c>
       <c r="N23">
-        <v>1.006016623110591</v>
+        <v>1.006022064124679</v>
       </c>
       <c r="O23">
-        <v>1.007004122900266</v>
+        <v>1.007007680822428</v>
       </c>
       <c r="P23">
-        <v>1.002728815835722</v>
+        <v>1.002728334187822</v>
       </c>
       <c r="Q23">
-        <v>1.002728815835722</v>
+        <v>1.002728334187822</v>
       </c>
       <c r="R23">
-        <v>1.001084912198287</v>
+        <v>1.001081469219393</v>
       </c>
       <c r="S23">
-        <v>1.001084912198287</v>
+        <v>1.001081469219393</v>
       </c>
       <c r="T23">
-        <v>1.000323720167881</v>
+        <v>1.000325782080586</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1946,58 +1952,58 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.9989774625537183</v>
+        <v>0.9989758828252507</v>
       </c>
       <c r="D24">
-        <v>1.004281490267081</v>
+        <v>1.004277941425143</v>
       </c>
       <c r="E24">
-        <v>0.9988435316915255</v>
+        <v>0.9988488598131477</v>
       </c>
       <c r="F24">
-        <v>1.004281490267081</v>
+        <v>1.004277941425143</v>
       </c>
       <c r="G24">
-        <v>0.9988435316915255</v>
+        <v>0.9988488598131477</v>
       </c>
       <c r="H24">
-        <v>0.997298734995314</v>
+        <v>0.9972932088485219</v>
       </c>
       <c r="I24">
-        <v>1.00232382191961</v>
+        <v>1.002323478611435</v>
       </c>
       <c r="J24">
-        <v>0.9989384104547494</v>
+        <v>0.9989388483370064</v>
       </c>
       <c r="K24">
-        <v>0.9988435316915255</v>
+        <v>0.9988488598131477</v>
       </c>
       <c r="L24">
-        <v>0.9989774625537183</v>
+        <v>0.9989758828252507</v>
       </c>
       <c r="M24">
-        <v>1.0016294764104</v>
+        <v>1.001626912125197</v>
       </c>
       <c r="N24">
-        <v>1.0016294764104</v>
+        <v>1.001626912125197</v>
       </c>
       <c r="O24">
-        <v>1.00186092491347</v>
+        <v>1.001859100953943</v>
       </c>
       <c r="P24">
-        <v>1.000700828170775</v>
+        <v>1.000700894687847</v>
       </c>
       <c r="Q24">
-        <v>1.000700828170775</v>
+        <v>1.000700894687847</v>
       </c>
       <c r="R24">
-        <v>1.000236504050963</v>
+        <v>1.000237885969172</v>
       </c>
       <c r="S24">
-        <v>1.000236504050963</v>
+        <v>1.000237885969172</v>
       </c>
       <c r="T24">
-        <v>1.000110575313666</v>
+        <v>1.000109703310084</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -2008,58 +2014,58 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.9958351660497387</v>
+        <v>0.995839559082411</v>
       </c>
       <c r="D25">
-        <v>1.016187623395622</v>
+        <v>1.016193687138772</v>
       </c>
       <c r="E25">
-        <v>0.9961653896017102</v>
+        <v>0.9961532012859831</v>
       </c>
       <c r="F25">
-        <v>1.016187623395622</v>
+        <v>1.016193687138772</v>
       </c>
       <c r="G25">
-        <v>0.9961653896017102</v>
+        <v>0.9961532012859831</v>
       </c>
       <c r="H25">
-        <v>0.9888308431684053</v>
+        <v>0.9888457516192121</v>
       </c>
       <c r="I25">
-        <v>1.00897962396532</v>
+        <v>1.008979122479616</v>
       </c>
       <c r="J25">
-        <v>0.9959314353796273</v>
+        <v>0.99593099940129</v>
       </c>
       <c r="K25">
-        <v>0.9961653896017102</v>
+        <v>0.9961532012859831</v>
       </c>
       <c r="L25">
-        <v>0.9958351660497387</v>
+        <v>0.995839559082411</v>
       </c>
       <c r="M25">
-        <v>1.00601139472268</v>
+        <v>1.006016623110591</v>
       </c>
       <c r="N25">
-        <v>1.00601139472268</v>
+        <v>1.006016623110591</v>
       </c>
       <c r="O25">
-        <v>1.007000804470227</v>
+        <v>1.007004122900266</v>
       </c>
       <c r="P25">
-        <v>1.00272939301569</v>
+        <v>1.002728815835722</v>
       </c>
       <c r="Q25">
-        <v>1.00272939301569</v>
+        <v>1.002728815835722</v>
       </c>
       <c r="R25">
-        <v>1.001088392162195</v>
+        <v>1.001084912198287</v>
       </c>
       <c r="S25">
-        <v>1.001088392162195</v>
+        <v>1.001084912198287</v>
       </c>
       <c r="T25">
-        <v>1.000321680260071</v>
+        <v>1.000323720167881</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2070,58 +2076,58 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>0.9989790107622064</v>
+        <v>0.9989774625537183</v>
       </c>
       <c r="D26">
-        <v>1.004285155495087</v>
+        <v>1.004281490267081</v>
       </c>
       <c r="E26">
-        <v>0.9988381723894774</v>
+        <v>0.9988435316915255</v>
       </c>
       <c r="F26">
-        <v>1.004285155495087</v>
+        <v>1.004281490267081</v>
       </c>
       <c r="G26">
-        <v>0.9988381723894774</v>
+        <v>0.9988435316915255</v>
       </c>
       <c r="H26">
-        <v>0.9973041753239912</v>
+        <v>0.997298734995314</v>
       </c>
       <c r="I26">
-        <v>1.002324251465643</v>
+        <v>1.00232382191961</v>
       </c>
       <c r="J26">
-        <v>0.9989379455639887</v>
+        <v>0.9989384104547494</v>
       </c>
       <c r="K26">
-        <v>0.9988381723894774</v>
+        <v>0.9988435316915255</v>
       </c>
       <c r="L26">
-        <v>0.9989790107622064</v>
+        <v>0.9989774625537183</v>
       </c>
       <c r="M26">
-        <v>1.001632083128647</v>
+        <v>1.0016294764104</v>
       </c>
       <c r="N26">
-        <v>1.001632083128647</v>
+        <v>1.0016294764104</v>
       </c>
       <c r="O26">
-        <v>1.001862805907645</v>
+        <v>1.00186092491347</v>
       </c>
       <c r="P26">
-        <v>1.000700779548924</v>
+        <v>1.000700828170775</v>
       </c>
       <c r="Q26">
-        <v>1.000700779548924</v>
+        <v>1.000700828170775</v>
       </c>
       <c r="R26">
-        <v>1.000235127759062</v>
+        <v>1.000236504050963</v>
       </c>
       <c r="S26">
-        <v>1.000235127759062</v>
+        <v>1.000236504050963</v>
       </c>
       <c r="T26">
-        <v>1.000111451833399</v>
+        <v>1.000110575313666</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2132,58 +2138,58 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>1.001850438573372</v>
+        <v>0.9958351660497387</v>
       </c>
       <c r="D27">
-        <v>0.9925538925523427</v>
+        <v>1.016187623395622</v>
       </c>
       <c r="E27">
-        <v>1.001881444491118</v>
+        <v>0.9961653896017102</v>
       </c>
       <c r="F27">
-        <v>0.9925538925523427</v>
+        <v>1.016187623395622</v>
       </c>
       <c r="G27">
-        <v>1.001881444491118</v>
+        <v>0.9961653896017102</v>
       </c>
       <c r="H27">
-        <v>1.004928654421058</v>
+        <v>0.9888308431684053</v>
       </c>
       <c r="I27">
-        <v>0.9959118292922561</v>
+        <v>1.00897962396532</v>
       </c>
       <c r="J27">
-        <v>1.001859480741293</v>
+        <v>0.9959314353796273</v>
       </c>
       <c r="K27">
-        <v>1.001881444491118</v>
+        <v>0.9961653896017102</v>
       </c>
       <c r="L27">
-        <v>1.001850438573372</v>
+        <v>0.9958351660497387</v>
       </c>
       <c r="M27">
-        <v>0.9972021655628575</v>
+        <v>1.00601139472268</v>
       </c>
       <c r="N27">
-        <v>0.9972021655628575</v>
+        <v>1.00601139472268</v>
       </c>
       <c r="O27">
-        <v>0.996772053472657</v>
+        <v>1.007000804470227</v>
       </c>
       <c r="P27">
-        <v>0.9987619252056111</v>
+        <v>1.00272939301569</v>
       </c>
       <c r="Q27">
-        <v>0.9987619252056111</v>
+        <v>1.00272939301569</v>
       </c>
       <c r="R27">
-        <v>0.9995418050269879</v>
+        <v>1.001088392162195</v>
       </c>
       <c r="S27">
-        <v>0.9995418050269879</v>
+        <v>1.001088392162195</v>
       </c>
       <c r="T27">
-        <v>0.9998309566785734</v>
+        <v>1.000321680260071</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2194,58 +2200,58 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>0.9996718818230452</v>
+        <v>0.9989790107622064</v>
       </c>
       <c r="D28">
-        <v>1.001277883099606</v>
+        <v>1.004285155495087</v>
       </c>
       <c r="E28">
-        <v>0.9996960976484845</v>
+        <v>0.9988381723894774</v>
       </c>
       <c r="F28">
-        <v>1.001277883099606</v>
+        <v>1.004285155495087</v>
       </c>
       <c r="G28">
-        <v>0.9996960976484845</v>
+        <v>0.9988381723894774</v>
       </c>
       <c r="H28">
-        <v>0.9991203882982448</v>
+        <v>0.9973041753239912</v>
       </c>
       <c r="I28">
-        <v>1.000708450774955</v>
+        <v>1.002324251465643</v>
       </c>
       <c r="J28">
-        <v>0.9996789436348006</v>
+        <v>0.9989379455639887</v>
       </c>
       <c r="K28">
-        <v>0.9996960976484845</v>
+        <v>0.9988381723894774</v>
       </c>
       <c r="L28">
-        <v>0.9996718818230452</v>
+        <v>0.9989790107622064</v>
       </c>
       <c r="M28">
-        <v>1.000474882461326</v>
+        <v>1.001632083128647</v>
       </c>
       <c r="N28">
-        <v>1.000474882461326</v>
+        <v>1.001632083128647</v>
       </c>
       <c r="O28">
-        <v>1.000552738565869</v>
+        <v>1.001862805907645</v>
       </c>
       <c r="P28">
-        <v>1.000215287523712</v>
+        <v>1.000700779548924</v>
       </c>
       <c r="Q28">
-        <v>1.000215287523712</v>
+        <v>1.000700779548924</v>
       </c>
       <c r="R28">
-        <v>1.000085490054905</v>
+        <v>1.000235127759062</v>
       </c>
       <c r="S28">
-        <v>1.000085490054905</v>
+        <v>1.000235127759062</v>
       </c>
       <c r="T28">
-        <v>1.000025607546523</v>
+        <v>1.000111451833399</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2256,57 +2262,181 @@
         <v>27</v>
       </c>
       <c r="C29">
+        <v>1.001850438573372</v>
+      </c>
+      <c r="D29">
+        <v>0.9925538925523427</v>
+      </c>
+      <c r="E29">
+        <v>1.001881444491118</v>
+      </c>
+      <c r="F29">
+        <v>0.9925538925523427</v>
+      </c>
+      <c r="G29">
+        <v>1.001881444491118</v>
+      </c>
+      <c r="H29">
+        <v>1.004928654421058</v>
+      </c>
+      <c r="I29">
+        <v>0.9959118292922561</v>
+      </c>
+      <c r="J29">
+        <v>1.001859480741293</v>
+      </c>
+      <c r="K29">
+        <v>1.001881444491118</v>
+      </c>
+      <c r="L29">
+        <v>1.001850438573372</v>
+      </c>
+      <c r="M29">
+        <v>0.9972021655628575</v>
+      </c>
+      <c r="N29">
+        <v>0.9972021655628575</v>
+      </c>
+      <c r="O29">
+        <v>0.996772053472657</v>
+      </c>
+      <c r="P29">
+        <v>0.9987619252056111</v>
+      </c>
+      <c r="Q29">
+        <v>0.9987619252056111</v>
+      </c>
+      <c r="R29">
+        <v>0.9995418050269879</v>
+      </c>
+      <c r="S29">
+        <v>0.9995418050269879</v>
+      </c>
+      <c r="T29">
+        <v>0.9998309566785734</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>0.9996718818230452</v>
+      </c>
+      <c r="D30">
+        <v>1.001277883099606</v>
+      </c>
+      <c r="E30">
+        <v>0.9996960976484845</v>
+      </c>
+      <c r="F30">
+        <v>1.001277883099606</v>
+      </c>
+      <c r="G30">
+        <v>0.9996960976484845</v>
+      </c>
+      <c r="H30">
+        <v>0.9991203882982448</v>
+      </c>
+      <c r="I30">
+        <v>1.000708450774955</v>
+      </c>
+      <c r="J30">
+        <v>0.9996789436348006</v>
+      </c>
+      <c r="K30">
+        <v>0.9996960976484845</v>
+      </c>
+      <c r="L30">
+        <v>0.9996718818230452</v>
+      </c>
+      <c r="M30">
+        <v>1.000474882461326</v>
+      </c>
+      <c r="N30">
+        <v>1.000474882461326</v>
+      </c>
+      <c r="O30">
+        <v>1.000552738565869</v>
+      </c>
+      <c r="P30">
+        <v>1.000215287523712</v>
+      </c>
+      <c r="Q30">
+        <v>1.000215287523712</v>
+      </c>
+      <c r="R30">
+        <v>1.000085490054905</v>
+      </c>
+      <c r="S30">
+        <v>1.000085490054905</v>
+      </c>
+      <c r="T30">
+        <v>1.000025607546523</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
         <v>0.9940014118364298</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <v>1.023969687002135</v>
       </c>
-      <c r="E29">
+      <c r="E31">
         <v>0.9940186632827289</v>
       </c>
-      <c r="F29">
+      <c r="F31">
         <v>1.023969687002135</v>
       </c>
-      <c r="G29">
+      <c r="G31">
         <v>0.9940186632827289</v>
       </c>
-      <c r="H29">
+      <c r="H31">
         <v>0.9840004742592225</v>
       </c>
-      <c r="I29">
+      <c r="I31">
         <v>1.013187326708888</v>
       </c>
-      <c r="J29">
+      <c r="J31">
         <v>0.9940064485521861</v>
       </c>
-      <c r="K29">
+      <c r="K31">
         <v>0.9940186632827289</v>
       </c>
-      <c r="L29">
+      <c r="L31">
         <v>0.9940014118364298</v>
       </c>
-      <c r="M29">
+      <c r="M31">
         <v>1.008985549419282</v>
       </c>
-      <c r="N29">
+      <c r="N31">
         <v>1.008985549419282</v>
       </c>
-      <c r="O29">
+      <c r="O31">
         <v>1.010386141849151</v>
       </c>
-      <c r="P29">
+      <c r="P31">
         <v>1.003996587373764</v>
       </c>
-      <c r="Q29">
+      <c r="Q31">
         <v>1.003996587373764</v>
       </c>
-      <c r="R29">
+      <c r="R31">
         <v>1.001502106351006</v>
       </c>
-      <c r="S29">
+      <c r="S31">
         <v>1.001502106351006</v>
       </c>
-      <c r="T29">
+      <c r="T31">
         <v>1.000530668606932</v>
       </c>
     </row>
